--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF5E899-2AC2-40FF-8FAB-92AFAAF5C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D156AC-81FE-47F0-B74E-85FDE3EE087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23430" yWindow="3990" windowWidth="23505" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,80 +381,79 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,16 +854,15 @@
   </sheetPr>
   <dimension ref="A1:AL938"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:AG51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="114.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -992,7 +990,7 @@
       <c r="AL3" s="7"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="6"/>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="7"/>
@@ -1077,9 +1075,9 @@
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>O51</f>
-        <v>0.75560000000000005</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1117,7 +1115,7 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1157,7 +1155,7 @@
       <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="7"/>
@@ -1281,7 +1279,7 @@
       <c r="AL10" s="7"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="6"/>
@@ -1323,73 +1321,73 @@
       <c r="AL11" s="7"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="28" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7"/>
@@ -1421,27 +1419,27 @@
       <c r="AL13" s="7"/>
     </row>
     <row r="14" spans="1:38" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1480,32 +1478,32 @@
       <c r="C15" s="7">
         <v>4.7230394679999996</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>636000000000000</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <v>488000000000000</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="16">
         <v>3.5</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="17">
         <v>472000000000000</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>165000000000000</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <v>206000000000000</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <v>488000000000000</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>61493</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -1546,32 +1544,32 @@
       <c r="C16" s="7">
         <v>2.7</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>292000000000000</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="15">
         <v>292000000000000</v>
       </c>
       <c r="G16" s="7">
         <v>1.65</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="15">
         <v>69600000000000</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="15">
         <v>222000000000000</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="15">
         <v>69600000000000</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>135568.85889999999</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1612,32 +1610,32 @@
       <c r="C17" s="7">
         <v>1.6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>173000000000000</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="15">
         <v>173000000000000</v>
       </c>
       <c r="G17" s="7">
         <v>0.27</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="15">
         <v>137000000000000</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="15">
         <v>36400000000000</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="15">
         <v>137000000000000</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>4110000000</v>
       </c>
       <c r="N17" s="7" t="s">
@@ -1678,38 +1676,38 @@
       <c r="C18" s="7">
         <v>0.2</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>20800000000000</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <v>20800000000000</v>
       </c>
       <c r="G18" s="7">
         <v>9.3333333000000004E-2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <v>8210000000000</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <v>12600000000000</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <v>8210000000000</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>50</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>0.79465919630000004</v>
       </c>
       <c r="P18" s="7"/>
@@ -1746,32 +1744,32 @@
       <c r="C19" s="7">
         <v>0.4</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>43300000000000</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <v>43300000000000</v>
       </c>
       <c r="G19" s="7">
         <v>0.18666666700000001</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="15">
         <v>18100000000000</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>25200000000000</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>18100000000000</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>206000000</v>
       </c>
       <c r="N19" s="7" t="s">
@@ -1843,55 +1841,55 @@
       <c r="AL20" s="7"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13"/>
     </row>
     <row r="22" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>75161</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="7"/>
@@ -1931,13 +1929,13 @@
       <c r="AL22" s="7"/>
     </row>
     <row r="23" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>6.2869999999999999</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="7"/>
@@ -1977,10 +1975,10 @@
       <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>473000000000000</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="7"/>
@@ -2021,13 +2019,13 @@
       <c r="AL24" s="7"/>
     </row>
     <row r="25" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>199050</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="7"/>
@@ -2067,7 +2065,7 @@
       <c r="AL25" s="7"/>
     </row>
     <row r="26" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>1037000000</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -2111,10 +2109,10 @@
       <c r="AL26" s="7"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>206000000000000</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="7"/>
@@ -2155,13 +2153,13 @@
       <c r="AL27" s="7"/>
     </row>
     <row r="28" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="A28" s="19">
         <v>0.72</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="7"/>
@@ -2201,7 +2199,7 @@
       <c r="AL28" s="7"/>
     </row>
     <row r="29" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>149000000000000</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -2245,7 +2243,7 @@
       <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:38" ht="39" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="20">
         <v>0.23930000000000001</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2329,142 +2327,142 @@
       <c r="AL31" s="7"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="24">
         <v>2020</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C33" s="24">
         <v>2021</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="24">
         <v>2022</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="24">
         <v>2023</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>2024</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>2025</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="24">
         <v>2026</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="24">
         <v>2027</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <v>2028</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K33" s="24">
         <v>2029</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>2030</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>2031</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>2032</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="11">
         <v>2033</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="11">
         <v>2034</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="11">
         <v>2035</v>
       </c>
-      <c r="R33" s="12">
+      <c r="R33" s="11">
         <v>2036</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="11">
         <v>2037</v>
       </c>
-      <c r="T33" s="12">
+      <c r="T33" s="11">
         <v>2038</v>
       </c>
-      <c r="U33" s="12">
+      <c r="U33" s="11">
         <v>2039</v>
       </c>
-      <c r="V33" s="12">
+      <c r="V33" s="11">
         <v>2040</v>
       </c>
-      <c r="W33" s="12">
+      <c r="W33" s="11">
         <v>2041</v>
       </c>
-      <c r="X33" s="12">
+      <c r="X33" s="11">
         <v>2042</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="11">
         <v>2043</v>
       </c>
-      <c r="Z33" s="12">
+      <c r="Z33" s="11">
         <v>2044</v>
       </c>
-      <c r="AA33" s="12">
+      <c r="AA33" s="11">
         <v>2045</v>
       </c>
-      <c r="AB33" s="12">
+      <c r="AB33" s="11">
         <v>2046</v>
       </c>
-      <c r="AC33" s="12">
+      <c r="AC33" s="11">
         <v>2047</v>
       </c>
-      <c r="AD33" s="12">
+      <c r="AD33" s="11">
         <v>2048</v>
       </c>
-      <c r="AE33" s="12">
+      <c r="AE33" s="11">
         <v>2049</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AF33" s="11">
         <v>2050</v>
       </c>
       <c r="AG33" s="7"/>
@@ -2475,100 +2473,100 @@
       <c r="AL33" s="7"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="15">
         <v>488000000000000</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>553000000000000</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="15">
         <v>572000000000000</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="15">
         <v>582000000000000</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="15">
         <v>590000000000000</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="15">
         <v>591000000000000</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="15">
         <v>590000000000000</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="15">
         <v>588000000000000</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="18">
         <v>588000000000000</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="18">
         <v>583000000000000</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="18">
         <v>583000000000000</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="18">
         <v>582000000000000</v>
       </c>
-      <c r="V34" s="21">
+      <c r="V34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="W34" s="21">
+      <c r="W34" s="18">
         <v>581000000000000</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="18">
         <v>580000000000000</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="18">
         <v>578000000000000</v>
       </c>
-      <c r="Z34" s="21">
+      <c r="Z34" s="18">
         <v>578000000000000</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="18">
         <v>577000000000000</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="18">
         <v>575000000000000</v>
       </c>
-      <c r="AC34" s="21">
+      <c r="AC34" s="18">
         <v>576000000000000</v>
       </c>
-      <c r="AD34" s="21">
+      <c r="AD34" s="18">
         <v>573000000000000</v>
       </c>
-      <c r="AE34" s="21">
+      <c r="AE34" s="18">
         <v>572000000000000</v>
       </c>
-      <c r="AF34" s="21">
+      <c r="AF34" s="18">
         <v>574000000000000</v>
       </c>
       <c r="AG34" s="7"/>
@@ -2579,100 +2577,100 @@
       <c r="AL34" s="7"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="15">
         <v>224000000000000</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <v>227000000000000</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="15">
         <v>252000000000000</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="15">
         <v>270000000000000</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="15">
         <v>278000000000000</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <v>284000000000000</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="15">
         <v>288000000000000</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="15">
         <v>290000000000000</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="15">
         <v>294000000000000</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="15">
         <v>297000000000000</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="18">
         <v>301000000000000</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M35" s="18">
         <v>305000000000000</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N35" s="18">
         <v>308000000000000</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="18">
         <v>311000000000000</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="18">
         <v>315000000000000</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="18">
         <v>319000000000000</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="18">
         <v>323000000000000</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="18">
         <v>326000000000000</v>
       </c>
-      <c r="T35" s="21">
+      <c r="T35" s="18">
         <v>329000000000000</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="18">
         <v>332000000000000</v>
       </c>
-      <c r="V35" s="21">
+      <c r="V35" s="18">
         <v>333000000000000</v>
       </c>
-      <c r="W35" s="21">
+      <c r="W35" s="18">
         <v>334000000000000</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35" s="18">
         <v>336000000000000</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="18">
         <v>340000000000000</v>
       </c>
-      <c r="Z35" s="21">
+      <c r="Z35" s="18">
         <v>343000000000000</v>
       </c>
-      <c r="AA35" s="21">
+      <c r="AA35" s="18">
         <v>347000000000000</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AB35" s="18">
         <v>349000000000000</v>
       </c>
-      <c r="AC35" s="21">
+      <c r="AC35" s="18">
         <v>351000000000000</v>
       </c>
-      <c r="AD35" s="21">
+      <c r="AD35" s="18">
         <v>352000000000000</v>
       </c>
-      <c r="AE35" s="21">
+      <c r="AE35" s="18">
         <v>355000000000000</v>
       </c>
-      <c r="AF35" s="21">
+      <c r="AF35" s="18">
         <v>359000000000000</v>
       </c>
       <c r="AG35" s="7"/>
@@ -2683,100 +2681,100 @@
       <c r="AL35" s="7"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <v>8210000000000</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <v>7150000000000</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>7970000000000</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="15">
         <v>7740000000000</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="15">
         <v>7940000000000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <v>8320000000000</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="15">
         <v>8170000000000</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="15">
         <v>8030000000000</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J36" s="15">
         <v>7900000000000</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="15">
         <v>7820000000000</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="18">
         <v>7780000000000</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M36" s="18">
         <v>7300000000000</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N36" s="18">
         <v>6840000000000</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="18">
         <v>6400000000000</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="18">
         <v>6120000000000</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="18">
         <v>6040000000000</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="18">
         <v>5980000000000</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="18">
         <v>5960000000000</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="U36" s="21">
+      <c r="U36" s="18">
         <v>6050000000000</v>
       </c>
-      <c r="V36" s="21">
+      <c r="V36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="W36" s="21">
+      <c r="W36" s="18">
         <v>6000000000000</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36" s="18">
         <v>6090000000000</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="18">
         <v>6260000000000</v>
       </c>
-      <c r="Z36" s="21">
+      <c r="Z36" s="18">
         <v>6270000000000</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AC36" s="21">
+      <c r="AC36" s="18">
         <v>6300000000000</v>
       </c>
-      <c r="AD36" s="21">
+      <c r="AD36" s="18">
         <v>6340000000000</v>
       </c>
-      <c r="AE36" s="21">
+      <c r="AE36" s="18">
         <v>6390000000000</v>
       </c>
-      <c r="AF36" s="21">
+      <c r="AF36" s="18">
         <v>6540000000000</v>
       </c>
       <c r="AG36" s="7"/>
@@ -2787,17 +2785,17 @@
       <c r="AL36" s="7"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2827,145 +2825,145 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="14"/>
-      <c r="AI38" s="14"/>
-      <c r="AJ38" s="14"/>
-      <c r="AK38" s="14"/>
-      <c r="AL38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="13"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="25">
         <v>2020</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="25">
         <v>2021</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="25">
         <v>2022</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="25">
         <v>2023</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="25">
         <v>2024</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="25">
         <v>2025</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="25">
         <v>2026</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="25">
         <v>2027</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="25">
         <v>2028</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="25">
         <v>2029</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="25">
         <v>2030</v>
       </c>
-      <c r="N39" s="28">
+      <c r="N39" s="25">
         <v>2031</v>
       </c>
-      <c r="O39" s="28">
+      <c r="O39" s="25">
         <v>2032</v>
       </c>
-      <c r="P39" s="28">
+      <c r="P39" s="25">
         <v>2033</v>
       </c>
-      <c r="Q39" s="28">
+      <c r="Q39" s="25">
         <v>2034</v>
       </c>
-      <c r="R39" s="28">
+      <c r="R39" s="25">
         <v>2035</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="25">
         <v>2036</v>
       </c>
-      <c r="T39" s="28">
+      <c r="T39" s="25">
         <v>2037</v>
       </c>
-      <c r="U39" s="28">
+      <c r="U39" s="25">
         <v>2038</v>
       </c>
-      <c r="V39" s="28">
+      <c r="V39" s="25">
         <v>2039</v>
       </c>
-      <c r="W39" s="28">
+      <c r="W39" s="25">
         <v>2040</v>
       </c>
-      <c r="X39" s="28">
+      <c r="X39" s="25">
         <v>2041</v>
       </c>
-      <c r="Y39" s="28">
+      <c r="Y39" s="25">
         <v>2042</v>
       </c>
-      <c r="Z39" s="28">
+      <c r="Z39" s="25">
         <v>2043</v>
       </c>
-      <c r="AA39" s="28">
+      <c r="AA39" s="25">
         <v>2044</v>
       </c>
-      <c r="AB39" s="28">
+      <c r="AB39" s="25">
         <v>2045</v>
       </c>
-      <c r="AC39" s="28">
+      <c r="AC39" s="25">
         <v>2046</v>
       </c>
-      <c r="AD39" s="28">
+      <c r="AD39" s="25">
         <v>2047</v>
       </c>
-      <c r="AE39" s="28">
+      <c r="AE39" s="25">
         <v>2048</v>
       </c>
-      <c r="AF39" s="28">
+      <c r="AF39" s="25">
         <v>2049</v>
       </c>
-      <c r="AG39" s="28">
+      <c r="AG39" s="25">
         <v>2050</v>
       </c>
       <c r="AH39" s="7"/>
@@ -2981,97 +2979,97 @@
       <c r="B40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>0</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="19">
         <v>0.11</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="19">
         <v>0.22</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="19">
         <v>0.33</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="19">
         <v>0.44</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="19">
         <v>0.67</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="19">
         <v>0.78</v>
       </c>
-      <c r="L40" s="22">
+      <c r="L40" s="19">
         <v>0.89</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="19">
         <v>1</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="19">
         <v>1</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40" s="19">
         <v>1</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40" s="19">
         <v>1</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40" s="19">
         <v>1</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="19">
         <v>1</v>
       </c>
-      <c r="S40" s="22">
+      <c r="S40" s="19">
         <v>1</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="19">
         <v>1</v>
       </c>
-      <c r="U40" s="22">
+      <c r="U40" s="19">
         <v>1</v>
       </c>
-      <c r="V40" s="22">
+      <c r="V40" s="19">
         <v>1</v>
       </c>
-      <c r="W40" s="22">
+      <c r="W40" s="19">
         <v>1</v>
       </c>
-      <c r="X40" s="22">
+      <c r="X40" s="19">
         <v>1</v>
       </c>
-      <c r="Y40" s="22">
+      <c r="Y40" s="19">
         <v>1</v>
       </c>
-      <c r="Z40" s="22">
+      <c r="Z40" s="19">
         <v>1</v>
       </c>
-      <c r="AA40" s="22">
+      <c r="AA40" s="19">
         <v>1</v>
       </c>
-      <c r="AB40" s="22">
+      <c r="AB40" s="19">
         <v>1</v>
       </c>
-      <c r="AC40" s="22">
+      <c r="AC40" s="19">
         <v>1</v>
       </c>
-      <c r="AD40" s="22">
+      <c r="AD40" s="19">
         <v>1</v>
       </c>
-      <c r="AE40" s="22">
+      <c r="AE40" s="19">
         <v>1</v>
       </c>
-      <c r="AF40" s="22">
+      <c r="AF40" s="19">
         <v>1</v>
       </c>
-      <c r="AG40" s="22">
+      <c r="AG40" s="19">
         <v>1</v>
       </c>
       <c r="AH40" s="7"/>
@@ -3087,97 +3085,97 @@
       <c r="B41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>0</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="19">
         <v>0.11</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="19">
         <v>0.22</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="19">
         <v>0.33</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="19">
         <v>0.44</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="19">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="19">
         <v>0.67</v>
       </c>
-      <c r="K41" s="22">
+      <c r="K41" s="19">
         <v>0.78</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="19">
         <v>0.89</v>
       </c>
-      <c r="M41" s="29">
+      <c r="M41" s="26">
         <v>1</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="19">
         <v>1</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41" s="19">
         <v>1</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41" s="19">
         <v>1</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41" s="19">
         <v>1</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41" s="19">
         <v>1</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="19">
         <v>1</v>
       </c>
-      <c r="T41" s="22">
+      <c r="T41" s="19">
         <v>1</v>
       </c>
-      <c r="U41" s="22">
+      <c r="U41" s="19">
         <v>1</v>
       </c>
-      <c r="V41" s="22">
+      <c r="V41" s="19">
         <v>1</v>
       </c>
-      <c r="W41" s="22">
+      <c r="W41" s="19">
         <v>1</v>
       </c>
-      <c r="X41" s="22">
+      <c r="X41" s="19">
         <v>1</v>
       </c>
-      <c r="Y41" s="22">
+      <c r="Y41" s="19">
         <v>1</v>
       </c>
-      <c r="Z41" s="22">
+      <c r="Z41" s="19">
         <v>1</v>
       </c>
-      <c r="AA41" s="22">
+      <c r="AA41" s="19">
         <v>1</v>
       </c>
-      <c r="AB41" s="22">
+      <c r="AB41" s="19">
         <v>1</v>
       </c>
-      <c r="AC41" s="22">
+      <c r="AC41" s="19">
         <v>1</v>
       </c>
-      <c r="AD41" s="22">
+      <c r="AD41" s="19">
         <v>1</v>
       </c>
-      <c r="AE41" s="22">
+      <c r="AE41" s="19">
         <v>1</v>
       </c>
-      <c r="AF41" s="22">
+      <c r="AF41" s="19">
         <v>1</v>
       </c>
-      <c r="AG41" s="22">
+      <c r="AG41" s="19">
         <v>1</v>
       </c>
       <c r="AH41" s="7"/>
@@ -3193,97 +3191,97 @@
       <c r="B42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>0</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>0</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="19">
         <v>0</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="19">
         <v>0</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="19">
         <v>0</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="19">
         <v>0</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="19">
         <v>0</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="19">
         <v>0</v>
       </c>
-      <c r="K42" s="22">
+      <c r="K42" s="19">
         <v>0</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="19">
         <v>0</v>
       </c>
-      <c r="M42" s="12">
+      <c r="M42" s="11">
         <v>0</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>0</v>
       </c>
-      <c r="O42" s="12">
+      <c r="O42" s="11">
         <v>0</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P42" s="11">
         <v>0</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>0</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="11">
         <v>0</v>
       </c>
-      <c r="S42" s="12">
+      <c r="S42" s="11">
         <v>0</v>
       </c>
-      <c r="T42" s="12">
+      <c r="T42" s="11">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
+      <c r="U42" s="11">
         <v>0</v>
       </c>
-      <c r="V42" s="12">
+      <c r="V42" s="11">
         <v>0</v>
       </c>
-      <c r="W42" s="12">
+      <c r="W42" s="11">
         <v>0</v>
       </c>
-      <c r="X42" s="12">
+      <c r="X42" s="11">
         <v>0</v>
       </c>
-      <c r="Y42" s="12">
+      <c r="Y42" s="11">
         <v>0</v>
       </c>
-      <c r="Z42" s="12">
+      <c r="Z42" s="11">
         <v>0</v>
       </c>
-      <c r="AA42" s="12">
+      <c r="AA42" s="11">
         <v>0</v>
       </c>
-      <c r="AB42" s="12">
+      <c r="AB42" s="11">
         <v>0</v>
       </c>
-      <c r="AC42" s="12">
+      <c r="AC42" s="11">
         <v>0</v>
       </c>
-      <c r="AD42" s="12">
+      <c r="AD42" s="11">
         <v>0</v>
       </c>
-      <c r="AE42" s="12">
+      <c r="AE42" s="11">
         <v>0</v>
       </c>
-      <c r="AF42" s="12">
+      <c r="AF42" s="11">
         <v>0</v>
       </c>
-      <c r="AG42" s="12">
+      <c r="AG42" s="11">
         <v>0</v>
       </c>
       <c r="AH42" s="7"/>
@@ -3299,97 +3297,97 @@
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>0</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>0</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="19">
         <v>0</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="19">
         <v>0</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K43" s="19">
         <v>0</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="19">
         <v>0</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="11">
         <v>0</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <v>0</v>
       </c>
-      <c r="O43" s="12">
+      <c r="O43" s="11">
         <v>0</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P43" s="11">
         <v>0</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="11">
         <v>0</v>
       </c>
-      <c r="R43" s="12">
+      <c r="R43" s="11">
         <v>0</v>
       </c>
-      <c r="S43" s="12">
+      <c r="S43" s="11">
         <v>0</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="11">
         <v>0</v>
       </c>
-      <c r="U43" s="12">
+      <c r="U43" s="11">
         <v>0</v>
       </c>
-      <c r="V43" s="12">
+      <c r="V43" s="11">
         <v>0</v>
       </c>
-      <c r="W43" s="12">
+      <c r="W43" s="11">
         <v>0</v>
       </c>
-      <c r="X43" s="12">
+      <c r="X43" s="11">
         <v>0</v>
       </c>
-      <c r="Y43" s="12">
+      <c r="Y43" s="11">
         <v>0</v>
       </c>
-      <c r="Z43" s="12">
+      <c r="Z43" s="11">
         <v>0</v>
       </c>
-      <c r="AA43" s="12">
+      <c r="AA43" s="11">
         <v>0</v>
       </c>
-      <c r="AB43" s="12">
+      <c r="AB43" s="11">
         <v>0</v>
       </c>
-      <c r="AC43" s="12">
+      <c r="AC43" s="11">
         <v>0</v>
       </c>
-      <c r="AD43" s="12">
+      <c r="AD43" s="11">
         <v>0</v>
       </c>
-      <c r="AE43" s="12">
+      <c r="AE43" s="11">
         <v>0</v>
       </c>
-      <c r="AF43" s="12">
+      <c r="AF43" s="11">
         <v>0</v>
       </c>
-      <c r="AG43" s="12">
+      <c r="AG43" s="11">
         <v>0</v>
       </c>
       <c r="AH43" s="7"/>
@@ -3405,97 +3403,97 @@
       <c r="B44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>0</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="19">
         <v>0</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="19">
         <v>0</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="19">
         <v>0</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="19">
         <v>0</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="19">
         <v>0</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="19">
         <v>0</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="19">
         <v>0</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <v>0</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>0</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="11">
         <v>0</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P44" s="11">
         <v>0</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="11">
         <v>0</v>
       </c>
-      <c r="R44" s="12">
+      <c r="R44" s="11">
         <v>0</v>
       </c>
-      <c r="S44" s="12">
+      <c r="S44" s="11">
         <v>0</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="11">
         <v>0</v>
       </c>
-      <c r="U44" s="12">
+      <c r="U44" s="11">
         <v>0</v>
       </c>
-      <c r="V44" s="12">
+      <c r="V44" s="11">
         <v>0</v>
       </c>
-      <c r="W44" s="12">
+      <c r="W44" s="11">
         <v>0</v>
       </c>
-      <c r="X44" s="12">
+      <c r="X44" s="11">
         <v>0</v>
       </c>
-      <c r="Y44" s="12">
+      <c r="Y44" s="11">
         <v>0</v>
       </c>
-      <c r="Z44" s="12">
+      <c r="Z44" s="11">
         <v>0</v>
       </c>
-      <c r="AA44" s="12">
+      <c r="AA44" s="11">
         <v>0</v>
       </c>
-      <c r="AB44" s="12">
+      <c r="AB44" s="11">
         <v>0</v>
       </c>
-      <c r="AC44" s="12">
+      <c r="AC44" s="11">
         <v>0</v>
       </c>
-      <c r="AD44" s="12">
+      <c r="AD44" s="11">
         <v>0</v>
       </c>
-      <c r="AE44" s="12">
+      <c r="AE44" s="11">
         <v>0</v>
       </c>
-      <c r="AF44" s="12">
+      <c r="AF44" s="11">
         <v>0</v>
       </c>
-      <c r="AG44" s="12">
+      <c r="AG44" s="11">
         <v>0</v>
       </c>
       <c r="AH44" s="7"/>
@@ -3545,101 +3543,101 @@
       <c r="AL45" s="7"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>0</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="20">
         <v>0.1111</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="20">
         <v>0.22220000000000001</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="20">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="20">
         <v>0.44440000000000002</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I46" s="20">
         <v>0.55559999999999998</v>
       </c>
-      <c r="J46" s="23">
+      <c r="J46" s="20">
         <v>0.66669999999999996</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="20">
         <v>0.77780000000000005</v>
       </c>
-      <c r="L46" s="23">
+      <c r="L46" s="20">
         <v>0.88890000000000002</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="20">
         <v>1</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="20">
         <v>1</v>
       </c>
-      <c r="O46" s="23">
+      <c r="O46" s="20">
         <v>1</v>
       </c>
-      <c r="P46" s="23">
+      <c r="P46" s="20">
         <v>1</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="Q46" s="20">
         <v>1</v>
       </c>
-      <c r="R46" s="23">
+      <c r="R46" s="20">
         <v>1</v>
       </c>
-      <c r="S46" s="23">
+      <c r="S46" s="20">
         <v>1</v>
       </c>
-      <c r="T46" s="23">
+      <c r="T46" s="20">
         <v>1</v>
       </c>
-      <c r="U46" s="23">
+      <c r="U46" s="20">
         <v>1</v>
       </c>
-      <c r="V46" s="23">
+      <c r="V46" s="20">
         <v>1</v>
       </c>
-      <c r="W46" s="23">
+      <c r="W46" s="20">
         <v>1</v>
       </c>
-      <c r="X46" s="23">
+      <c r="X46" s="20">
         <v>1</v>
       </c>
-      <c r="Y46" s="23">
+      <c r="Y46" s="20">
         <v>1</v>
       </c>
-      <c r="Z46" s="23">
+      <c r="Z46" s="20">
         <v>1</v>
       </c>
-      <c r="AA46" s="23">
+      <c r="AA46" s="20">
         <v>1</v>
       </c>
-      <c r="AB46" s="23">
+      <c r="AB46" s="20">
         <v>1</v>
       </c>
-      <c r="AC46" s="23">
+      <c r="AC46" s="20">
         <v>1</v>
       </c>
-      <c r="AD46" s="23">
+      <c r="AD46" s="20">
         <v>1</v>
       </c>
-      <c r="AE46" s="23">
+      <c r="AE46" s="20">
         <v>1</v>
       </c>
-      <c r="AF46" s="23">
+      <c r="AF46" s="20">
         <v>1</v>
       </c>
-      <c r="AG46" s="23">
+      <c r="AG46" s="20">
         <v>1</v>
       </c>
       <c r="AH46" s="7"/>
@@ -3649,101 +3647,101 @@
       <c r="AL46" s="7"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>0</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>0</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="20">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="20">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="20">
         <v>0.10340000000000001</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="20">
         <v>0.13789999999999999</v>
       </c>
-      <c r="I47" s="23">
+      <c r="I47" s="20">
         <v>0.1724</v>
       </c>
-      <c r="J47" s="23">
+      <c r="J47" s="20">
         <v>0.20680000000000001</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="20">
         <v>0.24129999999999999</v>
       </c>
-      <c r="L47" s="23">
+      <c r="L47" s="20">
         <v>0.27579999999999999</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="S47" s="23">
+      <c r="S47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="U47" s="23">
+      <c r="U47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="V47" s="23">
+      <c r="V47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="W47" s="23">
+      <c r="W47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="X47" s="23">
+      <c r="X47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Y47" s="23">
+      <c r="Y47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="Z47" s="23">
+      <c r="Z47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AA47" s="23">
+      <c r="AA47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AB47" s="23">
+      <c r="AB47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AC47" s="23">
+      <c r="AC47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AD47" s="23">
+      <c r="AD47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AE47" s="23">
+      <c r="AE47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AF47" s="23">
+      <c r="AF47" s="20">
         <v>0.31030000000000002</v>
       </c>
-      <c r="AG47" s="23">
+      <c r="AG47" s="20">
         <v>0.31030000000000002</v>
       </c>
       <c r="AH47" s="7"/>
@@ -3753,101 +3751,101 @@
       <c r="AL47" s="7"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>0</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="20">
         <v>0</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="20">
         <v>0</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="20">
         <v>0</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="20">
         <v>0</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="20">
         <v>0</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I48" s="20">
         <v>0</v>
       </c>
-      <c r="J48" s="23">
+      <c r="J48" s="20">
         <v>0</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="20">
         <v>0</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="20">
         <v>0</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <v>0</v>
       </c>
-      <c r="N48" s="23">
+      <c r="N48" s="20">
         <v>0</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O48" s="20">
         <v>0</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="20">
         <v>0</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="20">
         <v>0</v>
       </c>
-      <c r="R48" s="23">
+      <c r="R48" s="20">
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="20">
         <v>0</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T48" s="20">
         <v>0</v>
       </c>
-      <c r="U48" s="23">
+      <c r="U48" s="20">
         <v>0</v>
       </c>
-      <c r="V48" s="23">
+      <c r="V48" s="20">
         <v>0</v>
       </c>
-      <c r="W48" s="23">
+      <c r="W48" s="20">
         <v>0</v>
       </c>
-      <c r="X48" s="23">
+      <c r="X48" s="20">
         <v>0</v>
       </c>
-      <c r="Y48" s="23">
+      <c r="Y48" s="20">
         <v>0</v>
       </c>
-      <c r="Z48" s="23">
+      <c r="Z48" s="20">
         <v>0</v>
       </c>
-      <c r="AA48" s="23">
+      <c r="AA48" s="20">
         <v>0</v>
       </c>
-      <c r="AB48" s="23">
+      <c r="AB48" s="20">
         <v>0</v>
       </c>
-      <c r="AC48" s="23">
+      <c r="AC48" s="20">
         <v>0</v>
       </c>
-      <c r="AD48" s="23">
+      <c r="AD48" s="20">
         <v>0</v>
       </c>
-      <c r="AE48" s="23">
+      <c r="AE48" s="20">
         <v>0</v>
       </c>
-      <c r="AF48" s="23">
+      <c r="AF48" s="20">
         <v>0</v>
       </c>
-      <c r="AG48" s="23">
+      <c r="AG48" s="20">
         <v>0</v>
       </c>
       <c r="AH48" s="7"/>
@@ -3941,98 +3939,98 @@
         <v>69</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>0</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="20">
         <v>0</v>
       </c>
-      <c r="E51" s="23">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="F51" s="23">
-        <v>0.1721</v>
-      </c>
-      <c r="G51" s="23">
-        <v>0.25719999999999998</v>
-      </c>
-      <c r="H51" s="23">
-        <v>0.3417</v>
-      </c>
-      <c r="I51" s="23">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="J51" s="23">
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="K51" s="23">
-        <v>0.59379999999999999</v>
-      </c>
-      <c r="L51" s="23">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="M51" s="23">
-        <v>0.76</v>
-      </c>
-      <c r="N51" s="23">
-        <v>0.7571</v>
-      </c>
-      <c r="O51" s="23">
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="P51" s="23">
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="Q51" s="23">
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="R51" s="23">
-        <v>0.75009999999999999</v>
-      </c>
-      <c r="S51" s="23">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="T51" s="23">
-        <v>0.74709999999999999</v>
-      </c>
-      <c r="U51" s="23">
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="V51" s="23">
-        <v>0.74439999999999995</v>
-      </c>
-      <c r="W51" s="23">
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="X51" s="23">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="Y51" s="23">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="Z51" s="23">
-        <v>0.73929999999999996</v>
-      </c>
-      <c r="AA51" s="23">
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="AB51" s="23">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="AC51" s="23">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="AD51" s="23">
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="AE51" s="23">
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="AF51" s="23">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AG51" s="23">
-        <v>0.72960000000000003</v>
+      <c r="E51" s="20">
+        <v>0</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0</v>
+      </c>
+      <c r="H51" s="20">
+        <v>0</v>
+      </c>
+      <c r="I51" s="20">
+        <v>0</v>
+      </c>
+      <c r="J51" s="20">
+        <v>0</v>
+      </c>
+      <c r="K51" s="20">
+        <v>0</v>
+      </c>
+      <c r="L51" s="20">
+        <v>0</v>
+      </c>
+      <c r="M51" s="20">
+        <v>0</v>
+      </c>
+      <c r="N51" s="20">
+        <v>0</v>
+      </c>
+      <c r="O51" s="20">
+        <v>0</v>
+      </c>
+      <c r="P51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>0</v>
+      </c>
+      <c r="R51" s="20">
+        <v>0</v>
+      </c>
+      <c r="S51" s="20">
+        <v>0</v>
+      </c>
+      <c r="T51" s="20">
+        <v>0</v>
+      </c>
+      <c r="U51" s="20">
+        <v>0</v>
+      </c>
+      <c r="V51" s="20">
+        <v>0</v>
+      </c>
+      <c r="W51" s="20">
+        <v>0</v>
+      </c>
+      <c r="X51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="20">
+        <v>0</v>
       </c>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
@@ -39548,8 +39546,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="B2:AE8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39656,123 +39654,123 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <v>0.05</v>
       </c>
-      <c r="C2" s="30">
-        <f>$B2</f>
+      <c r="C2" s="27">
+        <f t="shared" ref="C2:AE2" si="0">$B2</f>
         <v>0.05</v>
       </c>
-      <c r="D2" s="30">
-        <f>$B2</f>
+      <c r="D2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E2" s="30">
-        <f>$B2</f>
+      <c r="E2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F2" s="30">
-        <f>$B2</f>
+      <c r="F2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G2" s="30">
-        <f>$B2</f>
+      <c r="G2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H2" s="30">
-        <f>$B2</f>
+      <c r="H2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I2" s="30">
-        <f>$B2</f>
+      <c r="I2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J2" s="30">
-        <f>$B2</f>
+      <c r="J2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K2" s="30">
-        <f>$B2</f>
+      <c r="K2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L2" s="30">
-        <f>$B2</f>
+      <c r="L2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M2" s="30">
-        <f>$B2</f>
+      <c r="M2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="N2" s="30">
-        <f>$B2</f>
+      <c r="N2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="O2" s="30">
-        <f>$B2</f>
+      <c r="O2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="P2" s="30">
-        <f>$B2</f>
+      <c r="P2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Q2" s="30">
-        <f>$B2</f>
+      <c r="Q2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="R2" s="30">
-        <f>$B2</f>
+      <c r="R2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="S2" s="30">
-        <f>$B2</f>
+      <c r="S2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="T2" s="30">
-        <f>$B2</f>
+      <c r="T2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="U2" s="30">
-        <f>$B2</f>
+      <c r="U2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="V2" s="30">
-        <f>$B2</f>
+      <c r="V2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="W2" s="30">
-        <f>$B2</f>
+      <c r="W2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="X2" s="30">
-        <f>$B2</f>
+      <c r="X2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Y2" s="30">
-        <f>$B2</f>
+      <c r="Y2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="Z2" s="30">
-        <f>$B2</f>
+      <c r="Z2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AA2" s="30">
-        <f>$B2</f>
+      <c r="AA2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AB2" s="30">
-        <f>$B2</f>
+      <c r="AB2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AC2" s="30">
-        <f>$B2</f>
+      <c r="AC2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AD2" s="30">
-        <f>$B2</f>
+      <c r="AD2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AE2" s="30">
-        <f>$B2</f>
+      <c r="AE2" s="27">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
@@ -39780,219 +39778,219 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="27">
         <f>0.95-IRA!D51</f>
         <v>0.95</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="27">
         <f>0.95-IRA!E51</f>
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="D3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="27">
         <f>0.95-IRA!F51</f>
-        <v>0.77789999999999992</v>
-      </c>
-      <c r="E3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="27">
         <f>0.95-IRA!G51</f>
-        <v>0.69279999999999997</v>
-      </c>
-      <c r="F3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="F3" s="27">
         <f>0.95-IRA!H51</f>
-        <v>0.60829999999999995</v>
-      </c>
-      <c r="G3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="27">
         <f>0.95-IRA!I51</f>
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="H3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="27">
         <f>0.95-IRA!J51</f>
-        <v>0.43959999999999999</v>
-      </c>
-      <c r="I3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="27">
         <f>0.95-IRA!K51</f>
-        <v>0.35619999999999996</v>
-      </c>
-      <c r="J3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="27">
         <f>0.95-IRA!L51</f>
-        <v>0.27269999999999994</v>
-      </c>
-      <c r="K3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="K3" s="27">
         <f>0.95-IRA!M51</f>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="L3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="L3" s="27">
         <f>0.95-IRA!N51</f>
-        <v>0.19289999999999996</v>
-      </c>
-      <c r="M3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="M3" s="27">
         <f>0.95-IRA!O51</f>
-        <v>0.19439999999999991</v>
-      </c>
-      <c r="N3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="N3" s="27">
         <f>0.95-IRA!P51</f>
-        <v>0.19579999999999997</v>
-      </c>
-      <c r="O3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="O3" s="27">
         <f>0.95-IRA!Q51</f>
-        <v>0.19739999999999991</v>
-      </c>
-      <c r="P3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="P3" s="27">
         <f>0.95-IRA!R51</f>
-        <v>0.19989999999999997</v>
-      </c>
-      <c r="Q3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="Q3" s="27">
         <f>0.95-IRA!S51</f>
-        <v>0.2014999999999999</v>
-      </c>
-      <c r="R3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="R3" s="27">
         <f>0.95-IRA!T51</f>
-        <v>0.20289999999999997</v>
-      </c>
-      <c r="S3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="S3" s="27">
         <f>0.95-IRA!U51</f>
-        <v>0.2044999999999999</v>
-      </c>
-      <c r="T3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="T3" s="27">
         <f>0.95-IRA!V51</f>
-        <v>0.2056</v>
-      </c>
-      <c r="U3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="U3" s="27">
         <f>0.95-IRA!W51</f>
-        <v>0.20649999999999991</v>
-      </c>
-      <c r="V3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="V3" s="27">
         <f>0.95-IRA!X51</f>
-        <v>0.20699999999999996</v>
-      </c>
-      <c r="W3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="W3" s="27">
         <f>0.95-IRA!Y51</f>
-        <v>0.20799999999999996</v>
-      </c>
-      <c r="X3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="X3" s="27">
         <f>0.95-IRA!Z51</f>
-        <v>0.2107</v>
-      </c>
-      <c r="Y3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="Y3" s="27">
         <f>0.95-IRA!AA51</f>
-        <v>0.21189999999999998</v>
-      </c>
-      <c r="Z3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="Z3" s="27">
         <f>0.95-IRA!AB51</f>
-        <v>0.21429999999999993</v>
-      </c>
-      <c r="AA3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="AA3" s="27">
         <f>0.95-IRA!AC51</f>
-        <v>0.2155999999999999</v>
-      </c>
-      <c r="AB3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="AB3" s="27">
         <f>0.95-IRA!AD51</f>
-        <v>0.21589999999999998</v>
-      </c>
-      <c r="AC3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="AC3" s="27">
         <f>0.95-IRA!AE51</f>
-        <v>0.21739999999999993</v>
-      </c>
-      <c r="AD3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="AD3" s="27">
         <f>0.95-IRA!AF51</f>
-        <v>0.21899999999999997</v>
-      </c>
-      <c r="AE3" s="30">
+        <v>0.95</v>
+      </c>
+      <c r="AE3" s="27">
         <f>0.95-IRA!AG51</f>
-        <v>0.22039999999999993</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="27">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>0</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="27">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="27">
         <v>0</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="27">
         <v>0</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="27">
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="27">
         <v>0</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="27">
         <v>0</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="27">
         <v>0</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="27">
         <v>0</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="27">
         <v>0</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="27">
         <v>0</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="27">
         <v>0</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="27">
         <v>0</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="27">
         <v>0</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="27">
         <v>0</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="27">
         <v>0</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="27">
         <v>0</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="27">
         <v>0</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="27">
         <v>0</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40000,94 +39998,94 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>0</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>0</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>0</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>0</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="27">
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="27">
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="27">
         <v>0</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="27">
         <v>0</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="27">
         <v>0</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="27">
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="27">
         <v>0</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="27">
         <v>0</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="27">
         <v>0</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="27">
         <v>0</v>
       </c>
-      <c r="T5" s="30">
+      <c r="T5" s="27">
         <v>0</v>
       </c>
-      <c r="U5" s="30">
+      <c r="U5" s="27">
         <v>0</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="27">
         <v>0</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="27">
         <v>0</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="27">
         <v>0</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="27">
         <v>0</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="27">
         <v>0</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="27">
         <v>0</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="27">
         <v>0</v>
       </c>
-      <c r="AC5" s="30">
+      <c r="AC5" s="27">
         <v>0</v>
       </c>
-      <c r="AD5" s="30">
+      <c r="AD5" s="27">
         <v>0</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40095,94 +40093,94 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>0</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="27">
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="27">
         <v>0</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="27">
         <v>0</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="27">
         <v>0</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <v>0</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="27">
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="27">
         <v>0</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="27">
         <v>0</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="27">
         <v>0</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="27">
         <v>0</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="27">
         <v>0</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="27">
         <v>0</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="27">
         <v>0</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="27">
         <v>0</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="27">
         <v>0</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="Z6" s="27">
         <v>0</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="27">
         <v>0</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="27">
         <v>0</v>
       </c>
-      <c r="AC6" s="30">
+      <c r="AC6" s="27">
         <v>0</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AD6" s="27">
         <v>0</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -40190,219 +40188,219 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <f>IRA!D51</f>
         <v>0</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <f>IRA!E51</f>
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
         <f>IRA!F51</f>
-        <v>0.1721</v>
-      </c>
-      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
         <f>IRA!G51</f>
-        <v>0.25719999999999998</v>
-      </c>
-      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
         <f>IRA!H51</f>
-        <v>0.3417</v>
-      </c>
-      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
         <f>IRA!I51</f>
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
         <f>IRA!J51</f>
-        <v>0.51039999999999996</v>
-      </c>
-      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
         <f>IRA!K51</f>
-        <v>0.59379999999999999</v>
-      </c>
-      <c r="J7" s="30">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
         <f>IRA!L51</f>
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="K7" s="30">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27">
         <f>IRA!M51</f>
-        <v>0.76</v>
-      </c>
-      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="L7" s="27">
         <f>IRA!N51</f>
-        <v>0.7571</v>
-      </c>
-      <c r="M7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
         <f>IRA!O51</f>
-        <v>0.75560000000000005</v>
-      </c>
-      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="N7" s="27">
         <f>IRA!P51</f>
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="O7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
         <f>IRA!Q51</f>
-        <v>0.75260000000000005</v>
-      </c>
-      <c r="P7" s="30">
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
         <f>IRA!R51</f>
-        <v>0.75009999999999999</v>
-      </c>
-      <c r="Q7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="27">
         <f>IRA!S51</f>
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="R7" s="30">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
         <f>IRA!T51</f>
-        <v>0.74709999999999999</v>
-      </c>
-      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="S7" s="27">
         <f>IRA!U51</f>
-        <v>0.74550000000000005</v>
-      </c>
-      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="27">
         <f>IRA!V51</f>
-        <v>0.74439999999999995</v>
-      </c>
-      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27">
         <f>IRA!W51</f>
-        <v>0.74350000000000005</v>
-      </c>
-      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="27">
         <f>IRA!X51</f>
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="27">
         <f>IRA!Y51</f>
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="X7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="27">
         <f>IRA!Z51</f>
-        <v>0.73929999999999996</v>
-      </c>
-      <c r="Y7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="27">
         <f>IRA!AA51</f>
-        <v>0.73809999999999998</v>
-      </c>
-      <c r="Z7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="27">
         <f>IRA!AB51</f>
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="AA7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="27">
         <f>IRA!AC51</f>
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="AB7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="27">
         <f>IRA!AD51</f>
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="AC7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
         <f>IRA!AE51</f>
-        <v>0.73260000000000003</v>
-      </c>
-      <c r="AD7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
         <f>IRA!AF51</f>
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="AE7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="27">
         <f>IRA!AG51</f>
-        <v>0.72960000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="27">
         <v>0</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>0</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>0</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="27">
         <v>0</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="27">
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="27">
         <v>0</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="27">
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="27">
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="27">
         <v>0</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="27">
         <v>0</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="27">
         <v>0</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="27">
         <v>0</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="27">
         <v>0</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="27">
         <v>0</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="27">
         <v>0</v>
       </c>
-      <c r="X8" s="30">
+      <c r="X8" s="27">
         <v>0</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="27">
         <v>0</v>
       </c>
-      <c r="Z8" s="30">
+      <c r="Z8" s="27">
         <v>0</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="27">
         <v>0</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="27">
         <v>0</v>
       </c>
-      <c r="AC8" s="30">
+      <c r="AC8" s="27">
         <v>0</v>
       </c>
-      <c r="AD8" s="30">
+      <c r="AD8" s="27">
         <v>0</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="27">
         <v>0</v>
       </c>
     </row>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9B630-ACEB-4002-8CBF-CFEA5B248D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF47411-BD46-4EF8-B5C0-B536AB8CC83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="1755" windowWidth="21630" windowHeight="13245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -750,17 +750,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,62 +768,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.76</v>
       </c>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>0.22</f>
         <v>0.22</v>
@@ -869,18 +869,18 @@
       <selection activeCell="C57" sqref="C57:AG57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
     </row>
-    <row r="2" spans="1:38" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1004,7 +1004,7 @@
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
@@ -1086,7 +1086,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1169,7 +1169,7 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>70</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1293,7 +1293,7 @@
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
     </row>
-    <row r="14" spans="1:38" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1483,7 +1483,7 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
     </row>
-    <row r="15" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
     </row>
-    <row r="18" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>48</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1855,7 +1855,7 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1895,7 +1895,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>74</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2025,7 +2025,7 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
@@ -2067,7 +2067,7 @@
       <c r="AK25" s="13"/>
       <c r="AL25" s="13"/>
     </row>
-    <row r="26" spans="1:38" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>75161</v>
       </c>
@@ -2113,7 +2113,7 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
     </row>
-    <row r="27" spans="1:38" ht="51" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>6.2869999999999999</v>
       </c>
@@ -2159,7 +2159,7 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>473000000000000</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="AK28" s="7"/>
       <c r="AL28" s="7"/>
     </row>
-    <row r="29" spans="1:38" ht="76" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>199050</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
     </row>
-    <row r="30" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1037000000</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>206000000000000</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
     </row>
-    <row r="32" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>0.72</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
     </row>
-    <row r="33" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>149000000000000</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
     </row>
-    <row r="34" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>0.23930000000000001</v>
       </c>
@@ -2471,7 +2471,7 @@
       <c r="AK34" s="7"/>
       <c r="AL34" s="7"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2511,7 +2511,7 @@
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="AK36" s="13"/>
       <c r="AL36" s="13"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>67</v>
       </c>
@@ -2657,7 +2657,7 @@
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>41</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>44</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>49</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3009,7 +3009,7 @@
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>69</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="AK42" s="13"/>
       <c r="AL42" s="13"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>28</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
     </row>
-    <row r="44" spans="1:38" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:38" ht="39" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
     </row>
-    <row r="45" spans="1:38" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:38" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
     </row>
-    <row r="47" spans="1:38" ht="26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="AK47" s="7"/>
       <c r="AL47" s="7"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>51</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3727,7 +3727,7 @@
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>41</v>
       </c>
@@ -3858,7 +3858,7 @@
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>44</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>49</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
     </row>
-    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -4168,7 +4168,7 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
     </row>
-    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -4208,7 +4208,7 @@
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
     </row>
-    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -4248,7 +4248,7 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -4288,7 +4288,7 @@
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>68</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -4463,7 +4463,7 @@
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -4503,7 +4503,7 @@
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -4543,7 +4543,7 @@
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -4583,7 +4583,7 @@
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -4623,7 +4623,7 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -4663,7 +4663,7 @@
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -4703,7 +4703,7 @@
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4743,7 +4743,7 @@
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4783,7 +4783,7 @@
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4823,7 +4823,7 @@
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4863,7 +4863,7 @@
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4903,7 +4903,7 @@
       <c r="AK69" s="7"/>
       <c r="AL69" s="7"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4943,7 +4943,7 @@
       <c r="AK70" s="7"/>
       <c r="AL70" s="7"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4983,7 +4983,7 @@
       <c r="AK71" s="7"/>
       <c r="AL71" s="7"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5023,7 +5023,7 @@
       <c r="AK72" s="7"/>
       <c r="AL72" s="7"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5063,7 +5063,7 @@
       <c r="AK73" s="7"/>
       <c r="AL73" s="7"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5103,7 +5103,7 @@
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5143,7 +5143,7 @@
       <c r="AK75" s="7"/>
       <c r="AL75" s="7"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5183,7 +5183,7 @@
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5223,7 +5223,7 @@
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5263,7 +5263,7 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5303,7 +5303,7 @@
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5343,7 +5343,7 @@
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5383,7 +5383,7 @@
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5423,7 +5423,7 @@
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5463,7 +5463,7 @@
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5503,7 +5503,7 @@
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5543,7 +5543,7 @@
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5583,7 +5583,7 @@
       <c r="AK86" s="7"/>
       <c r="AL86" s="7"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5623,7 +5623,7 @@
       <c r="AK87" s="7"/>
       <c r="AL87" s="7"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5663,7 +5663,7 @@
       <c r="AK88" s="7"/>
       <c r="AL88" s="7"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5703,7 +5703,7 @@
       <c r="AK89" s="7"/>
       <c r="AL89" s="7"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5743,7 +5743,7 @@
       <c r="AK90" s="7"/>
       <c r="AL90" s="7"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5783,7 +5783,7 @@
       <c r="AK91" s="7"/>
       <c r="AL91" s="7"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5823,7 +5823,7 @@
       <c r="AK92" s="7"/>
       <c r="AL92" s="7"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5863,7 +5863,7 @@
       <c r="AK93" s="7"/>
       <c r="AL93" s="7"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5903,7 +5903,7 @@
       <c r="AK94" s="7"/>
       <c r="AL94" s="7"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -5943,7 +5943,7 @@
       <c r="AK95" s="7"/>
       <c r="AL95" s="7"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -5983,7 +5983,7 @@
       <c r="AK96" s="7"/>
       <c r="AL96" s="7"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -6023,7 +6023,7 @@
       <c r="AK97" s="7"/>
       <c r="AL97" s="7"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -6063,7 +6063,7 @@
       <c r="AK98" s="7"/>
       <c r="AL98" s="7"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -6103,7 +6103,7 @@
       <c r="AK99" s="7"/>
       <c r="AL99" s="7"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -6143,7 +6143,7 @@
       <c r="AK100" s="7"/>
       <c r="AL100" s="7"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -6183,7 +6183,7 @@
       <c r="AK101" s="7"/>
       <c r="AL101" s="7"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -6223,7 +6223,7 @@
       <c r="AK102" s="7"/>
       <c r="AL102" s="7"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -6263,7 +6263,7 @@
       <c r="AK103" s="7"/>
       <c r="AL103" s="7"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -6303,7 +6303,7 @@
       <c r="AK104" s="7"/>
       <c r="AL104" s="7"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -6343,7 +6343,7 @@
       <c r="AK105" s="7"/>
       <c r="AL105" s="7"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -6383,7 +6383,7 @@
       <c r="AK106" s="7"/>
       <c r="AL106" s="7"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -6423,7 +6423,7 @@
       <c r="AK107" s="7"/>
       <c r="AL107" s="7"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -6463,7 +6463,7 @@
       <c r="AK108" s="7"/>
       <c r="AL108" s="7"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -6503,7 +6503,7 @@
       <c r="AK109" s="7"/>
       <c r="AL109" s="7"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -6543,7 +6543,7 @@
       <c r="AK110" s="7"/>
       <c r="AL110" s="7"/>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -6583,7 +6583,7 @@
       <c r="AK111" s="7"/>
       <c r="AL111" s="7"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -6623,7 +6623,7 @@
       <c r="AK112" s="7"/>
       <c r="AL112" s="7"/>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -6663,7 +6663,7 @@
       <c r="AK113" s="7"/>
       <c r="AL113" s="7"/>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -6703,7 +6703,7 @@
       <c r="AK114" s="7"/>
       <c r="AL114" s="7"/>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -6743,7 +6743,7 @@
       <c r="AK115" s="7"/>
       <c r="AL115" s="7"/>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -6783,7 +6783,7 @@
       <c r="AK116" s="7"/>
       <c r="AL116" s="7"/>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -6823,7 +6823,7 @@
       <c r="AK117" s="7"/>
       <c r="AL117" s="7"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -6863,7 +6863,7 @@
       <c r="AK118" s="7"/>
       <c r="AL118" s="7"/>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -6903,7 +6903,7 @@
       <c r="AK119" s="7"/>
       <c r="AL119" s="7"/>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -6943,7 +6943,7 @@
       <c r="AK120" s="7"/>
       <c r="AL120" s="7"/>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -6983,7 +6983,7 @@
       <c r="AK121" s="7"/>
       <c r="AL121" s="7"/>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -7023,7 +7023,7 @@
       <c r="AK122" s="7"/>
       <c r="AL122" s="7"/>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -7063,7 +7063,7 @@
       <c r="AK123" s="7"/>
       <c r="AL123" s="7"/>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7103,7 +7103,7 @@
       <c r="AK124" s="7"/>
       <c r="AL124" s="7"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7143,7 +7143,7 @@
       <c r="AK125" s="7"/>
       <c r="AL125" s="7"/>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7183,7 +7183,7 @@
       <c r="AK126" s="7"/>
       <c r="AL126" s="7"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7223,7 +7223,7 @@
       <c r="AK127" s="7"/>
       <c r="AL127" s="7"/>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7263,7 +7263,7 @@
       <c r="AK128" s="7"/>
       <c r="AL128" s="7"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7303,7 +7303,7 @@
       <c r="AK129" s="7"/>
       <c r="AL129" s="7"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -7343,7 +7343,7 @@
       <c r="AK130" s="7"/>
       <c r="AL130" s="7"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -7383,7 +7383,7 @@
       <c r="AK131" s="7"/>
       <c r="AL131" s="7"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -7423,7 +7423,7 @@
       <c r="AK132" s="7"/>
       <c r="AL132" s="7"/>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -7463,7 +7463,7 @@
       <c r="AK133" s="7"/>
       <c r="AL133" s="7"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -7503,7 +7503,7 @@
       <c r="AK134" s="7"/>
       <c r="AL134" s="7"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -7543,7 +7543,7 @@
       <c r="AK135" s="7"/>
       <c r="AL135" s="7"/>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -7583,7 +7583,7 @@
       <c r="AK136" s="7"/>
       <c r="AL136" s="7"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -7623,7 +7623,7 @@
       <c r="AK137" s="7"/>
       <c r="AL137" s="7"/>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -7663,7 +7663,7 @@
       <c r="AK138" s="7"/>
       <c r="AL138" s="7"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -7703,7 +7703,7 @@
       <c r="AK139" s="7"/>
       <c r="AL139" s="7"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -7743,7 +7743,7 @@
       <c r="AK140" s="7"/>
       <c r="AL140" s="7"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -7783,7 +7783,7 @@
       <c r="AK141" s="7"/>
       <c r="AL141" s="7"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -7823,7 +7823,7 @@
       <c r="AK142" s="7"/>
       <c r="AL142" s="7"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7863,7 +7863,7 @@
       <c r="AK143" s="7"/>
       <c r="AL143" s="7"/>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -7903,7 +7903,7 @@
       <c r="AK144" s="7"/>
       <c r="AL144" s="7"/>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -7943,7 +7943,7 @@
       <c r="AK145" s="7"/>
       <c r="AL145" s="7"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -7983,7 +7983,7 @@
       <c r="AK146" s="7"/>
       <c r="AL146" s="7"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -8023,7 +8023,7 @@
       <c r="AK147" s="7"/>
       <c r="AL147" s="7"/>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -8063,7 +8063,7 @@
       <c r="AK148" s="7"/>
       <c r="AL148" s="7"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -8103,7 +8103,7 @@
       <c r="AK149" s="7"/>
       <c r="AL149" s="7"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -8143,7 +8143,7 @@
       <c r="AK150" s="7"/>
       <c r="AL150" s="7"/>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -8183,7 +8183,7 @@
       <c r="AK151" s="7"/>
       <c r="AL151" s="7"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -8223,7 +8223,7 @@
       <c r="AK152" s="7"/>
       <c r="AL152" s="7"/>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -8263,7 +8263,7 @@
       <c r="AK153" s="7"/>
       <c r="AL153" s="7"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -8303,7 +8303,7 @@
       <c r="AK154" s="7"/>
       <c r="AL154" s="7"/>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -8343,7 +8343,7 @@
       <c r="AK155" s="7"/>
       <c r="AL155" s="7"/>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -8383,7 +8383,7 @@
       <c r="AK156" s="7"/>
       <c r="AL156" s="7"/>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -8423,7 +8423,7 @@
       <c r="AK157" s="7"/>
       <c r="AL157" s="7"/>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -8463,7 +8463,7 @@
       <c r="AK158" s="7"/>
       <c r="AL158" s="7"/>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -8503,7 +8503,7 @@
       <c r="AK159" s="7"/>
       <c r="AL159" s="7"/>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -8543,7 +8543,7 @@
       <c r="AK160" s="7"/>
       <c r="AL160" s="7"/>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -8583,7 +8583,7 @@
       <c r="AK161" s="7"/>
       <c r="AL161" s="7"/>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -8623,7 +8623,7 @@
       <c r="AK162" s="7"/>
       <c r="AL162" s="7"/>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -8663,7 +8663,7 @@
       <c r="AK163" s="7"/>
       <c r="AL163" s="7"/>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -8703,7 +8703,7 @@
       <c r="AK164" s="7"/>
       <c r="AL164" s="7"/>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -8743,7 +8743,7 @@
       <c r="AK165" s="7"/>
       <c r="AL165" s="7"/>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -8783,7 +8783,7 @@
       <c r="AK166" s="7"/>
       <c r="AL166" s="7"/>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -8823,7 +8823,7 @@
       <c r="AK167" s="7"/>
       <c r="AL167" s="7"/>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -8863,7 +8863,7 @@
       <c r="AK168" s="7"/>
       <c r="AL168" s="7"/>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -8903,7 +8903,7 @@
       <c r="AK169" s="7"/>
       <c r="AL169" s="7"/>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -8943,7 +8943,7 @@
       <c r="AK170" s="7"/>
       <c r="AL170" s="7"/>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -8983,7 +8983,7 @@
       <c r="AK171" s="7"/>
       <c r="AL171" s="7"/>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -9023,7 +9023,7 @@
       <c r="AK172" s="7"/>
       <c r="AL172" s="7"/>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -9063,7 +9063,7 @@
       <c r="AK173" s="7"/>
       <c r="AL173" s="7"/>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -9103,7 +9103,7 @@
       <c r="AK174" s="7"/>
       <c r="AL174" s="7"/>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -9143,7 +9143,7 @@
       <c r="AK175" s="7"/>
       <c r="AL175" s="7"/>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -9183,7 +9183,7 @@
       <c r="AK176" s="7"/>
       <c r="AL176" s="7"/>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9223,7 +9223,7 @@
       <c r="AK177" s="7"/>
       <c r="AL177" s="7"/>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -9263,7 +9263,7 @@
       <c r="AK178" s="7"/>
       <c r="AL178" s="7"/>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -9303,7 +9303,7 @@
       <c r="AK179" s="7"/>
       <c r="AL179" s="7"/>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -9343,7 +9343,7 @@
       <c r="AK180" s="7"/>
       <c r="AL180" s="7"/>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -9383,7 +9383,7 @@
       <c r="AK181" s="7"/>
       <c r="AL181" s="7"/>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -9423,7 +9423,7 @@
       <c r="AK182" s="7"/>
       <c r="AL182" s="7"/>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -9463,7 +9463,7 @@
       <c r="AK183" s="7"/>
       <c r="AL183" s="7"/>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -9503,7 +9503,7 @@
       <c r="AK184" s="7"/>
       <c r="AL184" s="7"/>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -9543,7 +9543,7 @@
       <c r="AK185" s="7"/>
       <c r="AL185" s="7"/>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -9583,7 +9583,7 @@
       <c r="AK186" s="7"/>
       <c r="AL186" s="7"/>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -9623,7 +9623,7 @@
       <c r="AK187" s="7"/>
       <c r="AL187" s="7"/>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -9663,7 +9663,7 @@
       <c r="AK188" s="7"/>
       <c r="AL188" s="7"/>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -9703,7 +9703,7 @@
       <c r="AK189" s="7"/>
       <c r="AL189" s="7"/>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -9743,7 +9743,7 @@
       <c r="AK190" s="7"/>
       <c r="AL190" s="7"/>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -9783,7 +9783,7 @@
       <c r="AK191" s="7"/>
       <c r="AL191" s="7"/>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -9823,7 +9823,7 @@
       <c r="AK192" s="7"/>
       <c r="AL192" s="7"/>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -9863,7 +9863,7 @@
       <c r="AK193" s="7"/>
       <c r="AL193" s="7"/>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -9903,7 +9903,7 @@
       <c r="AK194" s="7"/>
       <c r="AL194" s="7"/>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -9943,7 +9943,7 @@
       <c r="AK195" s="7"/>
       <c r="AL195" s="7"/>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -9983,7 +9983,7 @@
       <c r="AK196" s="7"/>
       <c r="AL196" s="7"/>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -10023,7 +10023,7 @@
       <c r="AK197" s="7"/>
       <c r="AL197" s="7"/>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -10063,7 +10063,7 @@
       <c r="AK198" s="7"/>
       <c r="AL198" s="7"/>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -10103,7 +10103,7 @@
       <c r="AK199" s="7"/>
       <c r="AL199" s="7"/>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -10143,7 +10143,7 @@
       <c r="AK200" s="7"/>
       <c r="AL200" s="7"/>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -10183,7 +10183,7 @@
       <c r="AK201" s="7"/>
       <c r="AL201" s="7"/>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -10223,7 +10223,7 @@
       <c r="AK202" s="7"/>
       <c r="AL202" s="7"/>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -10263,7 +10263,7 @@
       <c r="AK203" s="7"/>
       <c r="AL203" s="7"/>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -10303,7 +10303,7 @@
       <c r="AK204" s="7"/>
       <c r="AL204" s="7"/>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -10343,7 +10343,7 @@
       <c r="AK205" s="7"/>
       <c r="AL205" s="7"/>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -10383,7 +10383,7 @@
       <c r="AK206" s="7"/>
       <c r="AL206" s="7"/>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -10423,7 +10423,7 @@
       <c r="AK207" s="7"/>
       <c r="AL207" s="7"/>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -10463,7 +10463,7 @@
       <c r="AK208" s="7"/>
       <c r="AL208" s="7"/>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -10503,7 +10503,7 @@
       <c r="AK209" s="7"/>
       <c r="AL209" s="7"/>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -10543,7 +10543,7 @@
       <c r="AK210" s="7"/>
       <c r="AL210" s="7"/>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -10583,7 +10583,7 @@
       <c r="AK211" s="7"/>
       <c r="AL211" s="7"/>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -10623,7 +10623,7 @@
       <c r="AK212" s="7"/>
       <c r="AL212" s="7"/>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -10663,7 +10663,7 @@
       <c r="AK213" s="7"/>
       <c r="AL213" s="7"/>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -10703,7 +10703,7 @@
       <c r="AK214" s="7"/>
       <c r="AL214" s="7"/>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -10743,7 +10743,7 @@
       <c r="AK215" s="7"/>
       <c r="AL215" s="7"/>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -10783,7 +10783,7 @@
       <c r="AK216" s="7"/>
       <c r="AL216" s="7"/>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -10823,7 +10823,7 @@
       <c r="AK217" s="7"/>
       <c r="AL217" s="7"/>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -10863,7 +10863,7 @@
       <c r="AK218" s="7"/>
       <c r="AL218" s="7"/>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -10903,7 +10903,7 @@
       <c r="AK219" s="7"/>
       <c r="AL219" s="7"/>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -10943,7 +10943,7 @@
       <c r="AK220" s="7"/>
       <c r="AL220" s="7"/>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -10983,7 +10983,7 @@
       <c r="AK221" s="7"/>
       <c r="AL221" s="7"/>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -11023,7 +11023,7 @@
       <c r="AK222" s="7"/>
       <c r="AL222" s="7"/>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -11063,7 +11063,7 @@
       <c r="AK223" s="7"/>
       <c r="AL223" s="7"/>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -11103,7 +11103,7 @@
       <c r="AK224" s="7"/>
       <c r="AL224" s="7"/>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -11143,7 +11143,7 @@
       <c r="AK225" s="7"/>
       <c r="AL225" s="7"/>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -11183,7 +11183,7 @@
       <c r="AK226" s="7"/>
       <c r="AL226" s="7"/>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -11223,7 +11223,7 @@
       <c r="AK227" s="7"/>
       <c r="AL227" s="7"/>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -11263,7 +11263,7 @@
       <c r="AK228" s="7"/>
       <c r="AL228" s="7"/>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -11303,7 +11303,7 @@
       <c r="AK229" s="7"/>
       <c r="AL229" s="7"/>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -11343,7 +11343,7 @@
       <c r="AK230" s="7"/>
       <c r="AL230" s="7"/>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -11383,7 +11383,7 @@
       <c r="AK231" s="7"/>
       <c r="AL231" s="7"/>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -11423,7 +11423,7 @@
       <c r="AK232" s="7"/>
       <c r="AL232" s="7"/>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -11463,7 +11463,7 @@
       <c r="AK233" s="7"/>
       <c r="AL233" s="7"/>
     </row>
-    <row r="234" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -11503,7 +11503,7 @@
       <c r="AK234" s="7"/>
       <c r="AL234" s="7"/>
     </row>
-    <row r="235" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -11543,7 +11543,7 @@
       <c r="AK235" s="7"/>
       <c r="AL235" s="7"/>
     </row>
-    <row r="236" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -11583,7 +11583,7 @@
       <c r="AK236" s="7"/>
       <c r="AL236" s="7"/>
     </row>
-    <row r="237" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -11623,7 +11623,7 @@
       <c r="AK237" s="7"/>
       <c r="AL237" s="7"/>
     </row>
-    <row r="238" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -11663,7 +11663,7 @@
       <c r="AK238" s="7"/>
       <c r="AL238" s="7"/>
     </row>
-    <row r="239" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -11703,7 +11703,7 @@
       <c r="AK239" s="7"/>
       <c r="AL239" s="7"/>
     </row>
-    <row r="240" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -11743,7 +11743,7 @@
       <c r="AK240" s="7"/>
       <c r="AL240" s="7"/>
     </row>
-    <row r="241" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -11783,7 +11783,7 @@
       <c r="AK241" s="7"/>
       <c r="AL241" s="7"/>
     </row>
-    <row r="242" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -11823,7 +11823,7 @@
       <c r="AK242" s="7"/>
       <c r="AL242" s="7"/>
     </row>
-    <row r="243" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -11863,7 +11863,7 @@
       <c r="AK243" s="7"/>
       <c r="AL243" s="7"/>
     </row>
-    <row r="244" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -11903,7 +11903,7 @@
       <c r="AK244" s="7"/>
       <c r="AL244" s="7"/>
     </row>
-    <row r="245" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -11943,7 +11943,7 @@
       <c r="AK245" s="7"/>
       <c r="AL245" s="7"/>
     </row>
-    <row r="246" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -11983,7 +11983,7 @@
       <c r="AK246" s="7"/>
       <c r="AL246" s="7"/>
     </row>
-    <row r="247" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -12023,7 +12023,7 @@
       <c r="AK247" s="7"/>
       <c r="AL247" s="7"/>
     </row>
-    <row r="248" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -12063,7 +12063,7 @@
       <c r="AK248" s="7"/>
       <c r="AL248" s="7"/>
     </row>
-    <row r="249" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -12103,7 +12103,7 @@
       <c r="AK249" s="7"/>
       <c r="AL249" s="7"/>
     </row>
-    <row r="250" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -12143,7 +12143,7 @@
       <c r="AK250" s="7"/>
       <c r="AL250" s="7"/>
     </row>
-    <row r="251" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -12183,7 +12183,7 @@
       <c r="AK251" s="7"/>
       <c r="AL251" s="7"/>
     </row>
-    <row r="252" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -12223,7 +12223,7 @@
       <c r="AK252" s="7"/>
       <c r="AL252" s="7"/>
     </row>
-    <row r="253" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -12263,7 +12263,7 @@
       <c r="AK253" s="7"/>
       <c r="AL253" s="7"/>
     </row>
-    <row r="254" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -12303,7 +12303,7 @@
       <c r="AK254" s="7"/>
       <c r="AL254" s="7"/>
     </row>
-    <row r="255" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -12343,7 +12343,7 @@
       <c r="AK255" s="7"/>
       <c r="AL255" s="7"/>
     </row>
-    <row r="256" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -12383,7 +12383,7 @@
       <c r="AK256" s="7"/>
       <c r="AL256" s="7"/>
     </row>
-    <row r="257" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -12423,7 +12423,7 @@
       <c r="AK257" s="7"/>
       <c r="AL257" s="7"/>
     </row>
-    <row r="258" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -12463,7 +12463,7 @@
       <c r="AK258" s="7"/>
       <c r="AL258" s="7"/>
     </row>
-    <row r="259" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -12503,7 +12503,7 @@
       <c r="AK259" s="7"/>
       <c r="AL259" s="7"/>
     </row>
-    <row r="260" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -12543,7 +12543,7 @@
       <c r="AK260" s="7"/>
       <c r="AL260" s="7"/>
     </row>
-    <row r="261" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -12583,7 +12583,7 @@
       <c r="AK261" s="7"/>
       <c r="AL261" s="7"/>
     </row>
-    <row r="262" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -12623,7 +12623,7 @@
       <c r="AK262" s="7"/>
       <c r="AL262" s="7"/>
     </row>
-    <row r="263" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -12663,7 +12663,7 @@
       <c r="AK263" s="7"/>
       <c r="AL263" s="7"/>
     </row>
-    <row r="264" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -12703,7 +12703,7 @@
       <c r="AK264" s="7"/>
       <c r="AL264" s="7"/>
     </row>
-    <row r="265" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -12743,7 +12743,7 @@
       <c r="AK265" s="7"/>
       <c r="AL265" s="7"/>
     </row>
-    <row r="266" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -12783,7 +12783,7 @@
       <c r="AK266" s="7"/>
       <c r="AL266" s="7"/>
     </row>
-    <row r="267" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -12823,7 +12823,7 @@
       <c r="AK267" s="7"/>
       <c r="AL267" s="7"/>
     </row>
-    <row r="268" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -12863,7 +12863,7 @@
       <c r="AK268" s="7"/>
       <c r="AL268" s="7"/>
     </row>
-    <row r="269" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -12903,7 +12903,7 @@
       <c r="AK269" s="7"/>
       <c r="AL269" s="7"/>
     </row>
-    <row r="270" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -12943,7 +12943,7 @@
       <c r="AK270" s="7"/>
       <c r="AL270" s="7"/>
     </row>
-    <row r="271" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -12983,7 +12983,7 @@
       <c r="AK271" s="7"/>
       <c r="AL271" s="7"/>
     </row>
-    <row r="272" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -13023,7 +13023,7 @@
       <c r="AK272" s="7"/>
       <c r="AL272" s="7"/>
     </row>
-    <row r="273" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -13063,7 +13063,7 @@
       <c r="AK273" s="7"/>
       <c r="AL273" s="7"/>
     </row>
-    <row r="274" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -13103,7 +13103,7 @@
       <c r="AK274" s="7"/>
       <c r="AL274" s="7"/>
     </row>
-    <row r="275" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -13143,7 +13143,7 @@
       <c r="AK275" s="7"/>
       <c r="AL275" s="7"/>
     </row>
-    <row r="276" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -13183,7 +13183,7 @@
       <c r="AK276" s="7"/>
       <c r="AL276" s="7"/>
     </row>
-    <row r="277" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -13223,7 +13223,7 @@
       <c r="AK277" s="7"/>
       <c r="AL277" s="7"/>
     </row>
-    <row r="278" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -13263,7 +13263,7 @@
       <c r="AK278" s="7"/>
       <c r="AL278" s="7"/>
     </row>
-    <row r="279" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -13303,7 +13303,7 @@
       <c r="AK279" s="7"/>
       <c r="AL279" s="7"/>
     </row>
-    <row r="280" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -13343,7 +13343,7 @@
       <c r="AK280" s="7"/>
       <c r="AL280" s="7"/>
     </row>
-    <row r="281" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -13383,7 +13383,7 @@
       <c r="AK281" s="7"/>
       <c r="AL281" s="7"/>
     </row>
-    <row r="282" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -13423,7 +13423,7 @@
       <c r="AK282" s="7"/>
       <c r="AL282" s="7"/>
     </row>
-    <row r="283" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -13463,7 +13463,7 @@
       <c r="AK283" s="7"/>
       <c r="AL283" s="7"/>
     </row>
-    <row r="284" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -13503,7 +13503,7 @@
       <c r="AK284" s="7"/>
       <c r="AL284" s="7"/>
     </row>
-    <row r="285" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -13543,7 +13543,7 @@
       <c r="AK285" s="7"/>
       <c r="AL285" s="7"/>
     </row>
-    <row r="286" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -13583,7 +13583,7 @@
       <c r="AK286" s="7"/>
       <c r="AL286" s="7"/>
     </row>
-    <row r="287" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -13623,7 +13623,7 @@
       <c r="AK287" s="7"/>
       <c r="AL287" s="7"/>
     </row>
-    <row r="288" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -13663,7 +13663,7 @@
       <c r="AK288" s="7"/>
       <c r="AL288" s="7"/>
     </row>
-    <row r="289" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -13703,7 +13703,7 @@
       <c r="AK289" s="7"/>
       <c r="AL289" s="7"/>
     </row>
-    <row r="290" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -13743,7 +13743,7 @@
       <c r="AK290" s="7"/>
       <c r="AL290" s="7"/>
     </row>
-    <row r="291" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -13783,7 +13783,7 @@
       <c r="AK291" s="7"/>
       <c r="AL291" s="7"/>
     </row>
-    <row r="292" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -13823,7 +13823,7 @@
       <c r="AK292" s="7"/>
       <c r="AL292" s="7"/>
     </row>
-    <row r="293" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -13863,7 +13863,7 @@
       <c r="AK293" s="7"/>
       <c r="AL293" s="7"/>
     </row>
-    <row r="294" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -13903,7 +13903,7 @@
       <c r="AK294" s="7"/>
       <c r="AL294" s="7"/>
     </row>
-    <row r="295" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -13943,7 +13943,7 @@
       <c r="AK295" s="7"/>
       <c r="AL295" s="7"/>
     </row>
-    <row r="296" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -13983,7 +13983,7 @@
       <c r="AK296" s="7"/>
       <c r="AL296" s="7"/>
     </row>
-    <row r="297" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -14023,7 +14023,7 @@
       <c r="AK297" s="7"/>
       <c r="AL297" s="7"/>
     </row>
-    <row r="298" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -14063,7 +14063,7 @@
       <c r="AK298" s="7"/>
       <c r="AL298" s="7"/>
     </row>
-    <row r="299" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -14103,7 +14103,7 @@
       <c r="AK299" s="7"/>
       <c r="AL299" s="7"/>
     </row>
-    <row r="300" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -14143,7 +14143,7 @@
       <c r="AK300" s="7"/>
       <c r="AL300" s="7"/>
     </row>
-    <row r="301" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -14183,7 +14183,7 @@
       <c r="AK301" s="7"/>
       <c r="AL301" s="7"/>
     </row>
-    <row r="302" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -14223,7 +14223,7 @@
       <c r="AK302" s="7"/>
       <c r="AL302" s="7"/>
     </row>
-    <row r="303" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -14263,7 +14263,7 @@
       <c r="AK303" s="7"/>
       <c r="AL303" s="7"/>
     </row>
-    <row r="304" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -14303,7 +14303,7 @@
       <c r="AK304" s="7"/>
       <c r="AL304" s="7"/>
     </row>
-    <row r="305" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -14343,7 +14343,7 @@
       <c r="AK305" s="7"/>
       <c r="AL305" s="7"/>
     </row>
-    <row r="306" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -14383,7 +14383,7 @@
       <c r="AK306" s="7"/>
       <c r="AL306" s="7"/>
     </row>
-    <row r="307" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -14423,7 +14423,7 @@
       <c r="AK307" s="7"/>
       <c r="AL307" s="7"/>
     </row>
-    <row r="308" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -14463,7 +14463,7 @@
       <c r="AK308" s="7"/>
       <c r="AL308" s="7"/>
     </row>
-    <row r="309" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -14503,7 +14503,7 @@
       <c r="AK309" s="7"/>
       <c r="AL309" s="7"/>
     </row>
-    <row r="310" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -14543,7 +14543,7 @@
       <c r="AK310" s="7"/>
       <c r="AL310" s="7"/>
     </row>
-    <row r="311" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -14583,7 +14583,7 @@
       <c r="AK311" s="7"/>
       <c r="AL311" s="7"/>
     </row>
-    <row r="312" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -14623,7 +14623,7 @@
       <c r="AK312" s="7"/>
       <c r="AL312" s="7"/>
     </row>
-    <row r="313" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -14663,7 +14663,7 @@
       <c r="AK313" s="7"/>
       <c r="AL313" s="7"/>
     </row>
-    <row r="314" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -14703,7 +14703,7 @@
       <c r="AK314" s="7"/>
       <c r="AL314" s="7"/>
     </row>
-    <row r="315" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -14743,7 +14743,7 @@
       <c r="AK315" s="7"/>
       <c r="AL315" s="7"/>
     </row>
-    <row r="316" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -14783,7 +14783,7 @@
       <c r="AK316" s="7"/>
       <c r="AL316" s="7"/>
     </row>
-    <row r="317" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -14823,7 +14823,7 @@
       <c r="AK317" s="7"/>
       <c r="AL317" s="7"/>
     </row>
-    <row r="318" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -14863,7 +14863,7 @@
       <c r="AK318" s="7"/>
       <c r="AL318" s="7"/>
     </row>
-    <row r="319" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -14903,7 +14903,7 @@
       <c r="AK319" s="7"/>
       <c r="AL319" s="7"/>
     </row>
-    <row r="320" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -14943,7 +14943,7 @@
       <c r="AK320" s="7"/>
       <c r="AL320" s="7"/>
     </row>
-    <row r="321" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -14983,7 +14983,7 @@
       <c r="AK321" s="7"/>
       <c r="AL321" s="7"/>
     </row>
-    <row r="322" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -15023,7 +15023,7 @@
       <c r="AK322" s="7"/>
       <c r="AL322" s="7"/>
     </row>
-    <row r="323" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -15063,7 +15063,7 @@
       <c r="AK323" s="7"/>
       <c r="AL323" s="7"/>
     </row>
-    <row r="324" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -15103,7 +15103,7 @@
       <c r="AK324" s="7"/>
       <c r="AL324" s="7"/>
     </row>
-    <row r="325" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -15143,7 +15143,7 @@
       <c r="AK325" s="7"/>
       <c r="AL325" s="7"/>
     </row>
-    <row r="326" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -15183,7 +15183,7 @@
       <c r="AK326" s="7"/>
       <c r="AL326" s="7"/>
     </row>
-    <row r="327" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -15223,7 +15223,7 @@
       <c r="AK327" s="7"/>
       <c r="AL327" s="7"/>
     </row>
-    <row r="328" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -15263,7 +15263,7 @@
       <c r="AK328" s="7"/>
       <c r="AL328" s="7"/>
     </row>
-    <row r="329" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -15303,7 +15303,7 @@
       <c r="AK329" s="7"/>
       <c r="AL329" s="7"/>
     </row>
-    <row r="330" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -15343,7 +15343,7 @@
       <c r="AK330" s="7"/>
       <c r="AL330" s="7"/>
     </row>
-    <row r="331" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -15383,7 +15383,7 @@
       <c r="AK331" s="7"/>
       <c r="AL331" s="7"/>
     </row>
-    <row r="332" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -15423,7 +15423,7 @@
       <c r="AK332" s="7"/>
       <c r="AL332" s="7"/>
     </row>
-    <row r="333" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -15463,7 +15463,7 @@
       <c r="AK333" s="7"/>
       <c r="AL333" s="7"/>
     </row>
-    <row r="334" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -15503,7 +15503,7 @@
       <c r="AK334" s="7"/>
       <c r="AL334" s="7"/>
     </row>
-    <row r="335" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -15543,7 +15543,7 @@
       <c r="AK335" s="7"/>
       <c r="AL335" s="7"/>
     </row>
-    <row r="336" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -15583,7 +15583,7 @@
       <c r="AK336" s="7"/>
       <c r="AL336" s="7"/>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -15623,7 +15623,7 @@
       <c r="AK337" s="7"/>
       <c r="AL337" s="7"/>
     </row>
-    <row r="338" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -15663,7 +15663,7 @@
       <c r="AK338" s="7"/>
       <c r="AL338" s="7"/>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -15703,7 +15703,7 @@
       <c r="AK339" s="7"/>
       <c r="AL339" s="7"/>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -15743,7 +15743,7 @@
       <c r="AK340" s="7"/>
       <c r="AL340" s="7"/>
     </row>
-    <row r="341" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -15783,7 +15783,7 @@
       <c r="AK341" s="7"/>
       <c r="AL341" s="7"/>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -15823,7 +15823,7 @@
       <c r="AK342" s="7"/>
       <c r="AL342" s="7"/>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -15863,7 +15863,7 @@
       <c r="AK343" s="7"/>
       <c r="AL343" s="7"/>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -15903,7 +15903,7 @@
       <c r="AK344" s="7"/>
       <c r="AL344" s="7"/>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -15943,7 +15943,7 @@
       <c r="AK345" s="7"/>
       <c r="AL345" s="7"/>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -15983,7 +15983,7 @@
       <c r="AK346" s="7"/>
       <c r="AL346" s="7"/>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -16023,7 +16023,7 @@
       <c r="AK347" s="7"/>
       <c r="AL347" s="7"/>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -16063,7 +16063,7 @@
       <c r="AK348" s="7"/>
       <c r="AL348" s="7"/>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -16103,7 +16103,7 @@
       <c r="AK349" s="7"/>
       <c r="AL349" s="7"/>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -16143,7 +16143,7 @@
       <c r="AK350" s="7"/>
       <c r="AL350" s="7"/>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -16183,7 +16183,7 @@
       <c r="AK351" s="7"/>
       <c r="AL351" s="7"/>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -16223,7 +16223,7 @@
       <c r="AK352" s="7"/>
       <c r="AL352" s="7"/>
     </row>
-    <row r="353" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -16263,7 +16263,7 @@
       <c r="AK353" s="7"/>
       <c r="AL353" s="7"/>
     </row>
-    <row r="354" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -16303,7 +16303,7 @@
       <c r="AK354" s="7"/>
       <c r="AL354" s="7"/>
     </row>
-    <row r="355" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -16343,7 +16343,7 @@
       <c r="AK355" s="7"/>
       <c r="AL355" s="7"/>
     </row>
-    <row r="356" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -16383,7 +16383,7 @@
       <c r="AK356" s="7"/>
       <c r="AL356" s="7"/>
     </row>
-    <row r="357" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -16423,7 +16423,7 @@
       <c r="AK357" s="7"/>
       <c r="AL357" s="7"/>
     </row>
-    <row r="358" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -16463,7 +16463,7 @@
       <c r="AK358" s="7"/>
       <c r="AL358" s="7"/>
     </row>
-    <row r="359" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -16503,7 +16503,7 @@
       <c r="AK359" s="7"/>
       <c r="AL359" s="7"/>
     </row>
-    <row r="360" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -16543,7 +16543,7 @@
       <c r="AK360" s="7"/>
       <c r="AL360" s="7"/>
     </row>
-    <row r="361" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -16583,7 +16583,7 @@
       <c r="AK361" s="7"/>
       <c r="AL361" s="7"/>
     </row>
-    <row r="362" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -16623,7 +16623,7 @@
       <c r="AK362" s="7"/>
       <c r="AL362" s="7"/>
     </row>
-    <row r="363" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -16663,7 +16663,7 @@
       <c r="AK363" s="7"/>
       <c r="AL363" s="7"/>
     </row>
-    <row r="364" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -16703,7 +16703,7 @@
       <c r="AK364" s="7"/>
       <c r="AL364" s="7"/>
     </row>
-    <row r="365" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -16743,7 +16743,7 @@
       <c r="AK365" s="7"/>
       <c r="AL365" s="7"/>
     </row>
-    <row r="366" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -16783,7 +16783,7 @@
       <c r="AK366" s="7"/>
       <c r="AL366" s="7"/>
     </row>
-    <row r="367" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -16823,7 +16823,7 @@
       <c r="AK367" s="7"/>
       <c r="AL367" s="7"/>
     </row>
-    <row r="368" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -16863,7 +16863,7 @@
       <c r="AK368" s="7"/>
       <c r="AL368" s="7"/>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -16903,7 +16903,7 @@
       <c r="AK369" s="7"/>
       <c r="AL369" s="7"/>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -16943,7 +16943,7 @@
       <c r="AK370" s="7"/>
       <c r="AL370" s="7"/>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -16983,7 +16983,7 @@
       <c r="AK371" s="7"/>
       <c r="AL371" s="7"/>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -17023,7 +17023,7 @@
       <c r="AK372" s="7"/>
       <c r="AL372" s="7"/>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -17063,7 +17063,7 @@
       <c r="AK373" s="7"/>
       <c r="AL373" s="7"/>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -17103,7 +17103,7 @@
       <c r="AK374" s="7"/>
       <c r="AL374" s="7"/>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -17143,7 +17143,7 @@
       <c r="AK375" s="7"/>
       <c r="AL375" s="7"/>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -17183,7 +17183,7 @@
       <c r="AK376" s="7"/>
       <c r="AL376" s="7"/>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -17223,7 +17223,7 @@
       <c r="AK377" s="7"/>
       <c r="AL377" s="7"/>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -17263,7 +17263,7 @@
       <c r="AK378" s="7"/>
       <c r="AL378" s="7"/>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -17303,7 +17303,7 @@
       <c r="AK379" s="7"/>
       <c r="AL379" s="7"/>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -17343,7 +17343,7 @@
       <c r="AK380" s="7"/>
       <c r="AL380" s="7"/>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -17383,7 +17383,7 @@
       <c r="AK381" s="7"/>
       <c r="AL381" s="7"/>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -17423,7 +17423,7 @@
       <c r="AK382" s="7"/>
       <c r="AL382" s="7"/>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -17463,7 +17463,7 @@
       <c r="AK383" s="7"/>
       <c r="AL383" s="7"/>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -17503,7 +17503,7 @@
       <c r="AK384" s="7"/>
       <c r="AL384" s="7"/>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -17543,7 +17543,7 @@
       <c r="AK385" s="7"/>
       <c r="AL385" s="7"/>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -17583,7 +17583,7 @@
       <c r="AK386" s="7"/>
       <c r="AL386" s="7"/>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -17623,7 +17623,7 @@
       <c r="AK387" s="7"/>
       <c r="AL387" s="7"/>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -17663,7 +17663,7 @@
       <c r="AK388" s="7"/>
       <c r="AL388" s="7"/>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -17703,7 +17703,7 @@
       <c r="AK389" s="7"/>
       <c r="AL389" s="7"/>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -17743,7 +17743,7 @@
       <c r="AK390" s="7"/>
       <c r="AL390" s="7"/>
     </row>
-    <row r="391" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -17783,7 +17783,7 @@
       <c r="AK391" s="7"/>
       <c r="AL391" s="7"/>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -17823,7 +17823,7 @@
       <c r="AK392" s="7"/>
       <c r="AL392" s="7"/>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -17863,7 +17863,7 @@
       <c r="AK393" s="7"/>
       <c r="AL393" s="7"/>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -17903,7 +17903,7 @@
       <c r="AK394" s="7"/>
       <c r="AL394" s="7"/>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -17943,7 +17943,7 @@
       <c r="AK395" s="7"/>
       <c r="AL395" s="7"/>
     </row>
-    <row r="396" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -17983,7 +17983,7 @@
       <c r="AK396" s="7"/>
       <c r="AL396" s="7"/>
     </row>
-    <row r="397" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -18023,7 +18023,7 @@
       <c r="AK397" s="7"/>
       <c r="AL397" s="7"/>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -18063,7 +18063,7 @@
       <c r="AK398" s="7"/>
       <c r="AL398" s="7"/>
     </row>
-    <row r="399" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -18103,7 +18103,7 @@
       <c r="AK399" s="7"/>
       <c r="AL399" s="7"/>
     </row>
-    <row r="400" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -18143,7 +18143,7 @@
       <c r="AK400" s="7"/>
       <c r="AL400" s="7"/>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -18183,7 +18183,7 @@
       <c r="AK401" s="7"/>
       <c r="AL401" s="7"/>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -18223,7 +18223,7 @@
       <c r="AK402" s="7"/>
       <c r="AL402" s="7"/>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -18263,7 +18263,7 @@
       <c r="AK403" s="7"/>
       <c r="AL403" s="7"/>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -18303,7 +18303,7 @@
       <c r="AK404" s="7"/>
       <c r="AL404" s="7"/>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -18343,7 +18343,7 @@
       <c r="AK405" s="7"/>
       <c r="AL405" s="7"/>
     </row>
-    <row r="406" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -18383,7 +18383,7 @@
       <c r="AK406" s="7"/>
       <c r="AL406" s="7"/>
     </row>
-    <row r="407" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -18423,7 +18423,7 @@
       <c r="AK407" s="7"/>
       <c r="AL407" s="7"/>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -18463,7 +18463,7 @@
       <c r="AK408" s="7"/>
       <c r="AL408" s="7"/>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -18503,7 +18503,7 @@
       <c r="AK409" s="7"/>
       <c r="AL409" s="7"/>
     </row>
-    <row r="410" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -18543,7 +18543,7 @@
       <c r="AK410" s="7"/>
       <c r="AL410" s="7"/>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -18583,7 +18583,7 @@
       <c r="AK411" s="7"/>
       <c r="AL411" s="7"/>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -18623,7 +18623,7 @@
       <c r="AK412" s="7"/>
       <c r="AL412" s="7"/>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -18663,7 +18663,7 @@
       <c r="AK413" s="7"/>
       <c r="AL413" s="7"/>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -18703,7 +18703,7 @@
       <c r="AK414" s="7"/>
       <c r="AL414" s="7"/>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -18743,7 +18743,7 @@
       <c r="AK415" s="7"/>
       <c r="AL415" s="7"/>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -18783,7 +18783,7 @@
       <c r="AK416" s="7"/>
       <c r="AL416" s="7"/>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -18823,7 +18823,7 @@
       <c r="AK417" s="7"/>
       <c r="AL417" s="7"/>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -18863,7 +18863,7 @@
       <c r="AK418" s="7"/>
       <c r="AL418" s="7"/>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -18903,7 +18903,7 @@
       <c r="AK419" s="7"/>
       <c r="AL419" s="7"/>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -18943,7 +18943,7 @@
       <c r="AK420" s="7"/>
       <c r="AL420" s="7"/>
     </row>
-    <row r="421" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -18983,7 +18983,7 @@
       <c r="AK421" s="7"/>
       <c r="AL421" s="7"/>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -19023,7 +19023,7 @@
       <c r="AK422" s="7"/>
       <c r="AL422" s="7"/>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -19063,7 +19063,7 @@
       <c r="AK423" s="7"/>
       <c r="AL423" s="7"/>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -19103,7 +19103,7 @@
       <c r="AK424" s="7"/>
       <c r="AL424" s="7"/>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -19143,7 +19143,7 @@
       <c r="AK425" s="7"/>
       <c r="AL425" s="7"/>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -19183,7 +19183,7 @@
       <c r="AK426" s="7"/>
       <c r="AL426" s="7"/>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -19223,7 +19223,7 @@
       <c r="AK427" s="7"/>
       <c r="AL427" s="7"/>
     </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -19263,7 +19263,7 @@
       <c r="AK428" s="7"/>
       <c r="AL428" s="7"/>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -19303,7 +19303,7 @@
       <c r="AK429" s="7"/>
       <c r="AL429" s="7"/>
     </row>
-    <row r="430" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -19343,7 +19343,7 @@
       <c r="AK430" s="7"/>
       <c r="AL430" s="7"/>
     </row>
-    <row r="431" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -19383,7 +19383,7 @@
       <c r="AK431" s="7"/>
       <c r="AL431" s="7"/>
     </row>
-    <row r="432" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -19423,7 +19423,7 @@
       <c r="AK432" s="7"/>
       <c r="AL432" s="7"/>
     </row>
-    <row r="433" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -19463,7 +19463,7 @@
       <c r="AK433" s="7"/>
       <c r="AL433" s="7"/>
     </row>
-    <row r="434" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -19503,7 +19503,7 @@
       <c r="AK434" s="7"/>
       <c r="AL434" s="7"/>
     </row>
-    <row r="435" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -19543,7 +19543,7 @@
       <c r="AK435" s="7"/>
       <c r="AL435" s="7"/>
     </row>
-    <row r="436" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -19583,7 +19583,7 @@
       <c r="AK436" s="7"/>
       <c r="AL436" s="7"/>
     </row>
-    <row r="437" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -19623,7 +19623,7 @@
       <c r="AK437" s="7"/>
       <c r="AL437" s="7"/>
     </row>
-    <row r="438" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -19663,7 +19663,7 @@
       <c r="AK438" s="7"/>
       <c r="AL438" s="7"/>
     </row>
-    <row r="439" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -19703,7 +19703,7 @@
       <c r="AK439" s="7"/>
       <c r="AL439" s="7"/>
     </row>
-    <row r="440" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -19743,7 +19743,7 @@
       <c r="AK440" s="7"/>
       <c r="AL440" s="7"/>
     </row>
-    <row r="441" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -19783,7 +19783,7 @@
       <c r="AK441" s="7"/>
       <c r="AL441" s="7"/>
     </row>
-    <row r="442" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -19823,7 +19823,7 @@
       <c r="AK442" s="7"/>
       <c r="AL442" s="7"/>
     </row>
-    <row r="443" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -19863,7 +19863,7 @@
       <c r="AK443" s="7"/>
       <c r="AL443" s="7"/>
     </row>
-    <row r="444" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -19903,7 +19903,7 @@
       <c r="AK444" s="7"/>
       <c r="AL444" s="7"/>
     </row>
-    <row r="445" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -19943,7 +19943,7 @@
       <c r="AK445" s="7"/>
       <c r="AL445" s="7"/>
     </row>
-    <row r="446" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -19983,7 +19983,7 @@
       <c r="AK446" s="7"/>
       <c r="AL446" s="7"/>
     </row>
-    <row r="447" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -20023,7 +20023,7 @@
       <c r="AK447" s="7"/>
       <c r="AL447" s="7"/>
     </row>
-    <row r="448" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -20063,7 +20063,7 @@
       <c r="AK448" s="7"/>
       <c r="AL448" s="7"/>
     </row>
-    <row r="449" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -20103,7 +20103,7 @@
       <c r="AK449" s="7"/>
       <c r="AL449" s="7"/>
     </row>
-    <row r="450" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -20143,7 +20143,7 @@
       <c r="AK450" s="7"/>
       <c r="AL450" s="7"/>
     </row>
-    <row r="451" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -20183,7 +20183,7 @@
       <c r="AK451" s="7"/>
       <c r="AL451" s="7"/>
     </row>
-    <row r="452" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -20223,7 +20223,7 @@
       <c r="AK452" s="7"/>
       <c r="AL452" s="7"/>
     </row>
-    <row r="453" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -20263,7 +20263,7 @@
       <c r="AK453" s="7"/>
       <c r="AL453" s="7"/>
     </row>
-    <row r="454" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -20303,7 +20303,7 @@
       <c r="AK454" s="7"/>
       <c r="AL454" s="7"/>
     </row>
-    <row r="455" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -20343,7 +20343,7 @@
       <c r="AK455" s="7"/>
       <c r="AL455" s="7"/>
     </row>
-    <row r="456" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -20383,7 +20383,7 @@
       <c r="AK456" s="7"/>
       <c r="AL456" s="7"/>
     </row>
-    <row r="457" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -20423,7 +20423,7 @@
       <c r="AK457" s="7"/>
       <c r="AL457" s="7"/>
     </row>
-    <row r="458" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -20463,7 +20463,7 @@
       <c r="AK458" s="7"/>
       <c r="AL458" s="7"/>
     </row>
-    <row r="459" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -20503,7 +20503,7 @@
       <c r="AK459" s="7"/>
       <c r="AL459" s="7"/>
     </row>
-    <row r="460" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -20543,7 +20543,7 @@
       <c r="AK460" s="7"/>
       <c r="AL460" s="7"/>
     </row>
-    <row r="461" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -20583,7 +20583,7 @@
       <c r="AK461" s="7"/>
       <c r="AL461" s="7"/>
     </row>
-    <row r="462" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -20623,7 +20623,7 @@
       <c r="AK462" s="7"/>
       <c r="AL462" s="7"/>
     </row>
-    <row r="463" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -20663,7 +20663,7 @@
       <c r="AK463" s="7"/>
       <c r="AL463" s="7"/>
     </row>
-    <row r="464" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -20703,7 +20703,7 @@
       <c r="AK464" s="7"/>
       <c r="AL464" s="7"/>
     </row>
-    <row r="465" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -20743,7 +20743,7 @@
       <c r="AK465" s="7"/>
       <c r="AL465" s="7"/>
     </row>
-    <row r="466" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -20783,7 +20783,7 @@
       <c r="AK466" s="7"/>
       <c r="AL466" s="7"/>
     </row>
-    <row r="467" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -20823,7 +20823,7 @@
       <c r="AK467" s="7"/>
       <c r="AL467" s="7"/>
     </row>
-    <row r="468" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -20863,7 +20863,7 @@
       <c r="AK468" s="7"/>
       <c r="AL468" s="7"/>
     </row>
-    <row r="469" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -20903,7 +20903,7 @@
       <c r="AK469" s="7"/>
       <c r="AL469" s="7"/>
     </row>
-    <row r="470" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -20943,7 +20943,7 @@
       <c r="AK470" s="7"/>
       <c r="AL470" s="7"/>
     </row>
-    <row r="471" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -20983,7 +20983,7 @@
       <c r="AK471" s="7"/>
       <c r="AL471" s="7"/>
     </row>
-    <row r="472" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -21023,7 +21023,7 @@
       <c r="AK472" s="7"/>
       <c r="AL472" s="7"/>
     </row>
-    <row r="473" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -21063,7 +21063,7 @@
       <c r="AK473" s="7"/>
       <c r="AL473" s="7"/>
     </row>
-    <row r="474" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -21103,7 +21103,7 @@
       <c r="AK474" s="7"/>
       <c r="AL474" s="7"/>
     </row>
-    <row r="475" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -21143,7 +21143,7 @@
       <c r="AK475" s="7"/>
       <c r="AL475" s="7"/>
     </row>
-    <row r="476" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -21183,7 +21183,7 @@
       <c r="AK476" s="7"/>
       <c r="AL476" s="7"/>
     </row>
-    <row r="477" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -21223,7 +21223,7 @@
       <c r="AK477" s="7"/>
       <c r="AL477" s="7"/>
     </row>
-    <row r="478" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -21263,7 +21263,7 @@
       <c r="AK478" s="7"/>
       <c r="AL478" s="7"/>
     </row>
-    <row r="479" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -21303,7 +21303,7 @@
       <c r="AK479" s="7"/>
       <c r="AL479" s="7"/>
     </row>
-    <row r="480" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -21343,7 +21343,7 @@
       <c r="AK480" s="7"/>
       <c r="AL480" s="7"/>
     </row>
-    <row r="481" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -21383,7 +21383,7 @@
       <c r="AK481" s="7"/>
       <c r="AL481" s="7"/>
     </row>
-    <row r="482" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -21423,7 +21423,7 @@
       <c r="AK482" s="7"/>
       <c r="AL482" s="7"/>
     </row>
-    <row r="483" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -21463,7 +21463,7 @@
       <c r="AK483" s="7"/>
       <c r="AL483" s="7"/>
     </row>
-    <row r="484" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -21503,7 +21503,7 @@
       <c r="AK484" s="7"/>
       <c r="AL484" s="7"/>
     </row>
-    <row r="485" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -21543,7 +21543,7 @@
       <c r="AK485" s="7"/>
       <c r="AL485" s="7"/>
     </row>
-    <row r="486" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -21583,7 +21583,7 @@
       <c r="AK486" s="7"/>
       <c r="AL486" s="7"/>
     </row>
-    <row r="487" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -21623,7 +21623,7 @@
       <c r="AK487" s="7"/>
       <c r="AL487" s="7"/>
     </row>
-    <row r="488" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -21663,7 +21663,7 @@
       <c r="AK488" s="7"/>
       <c r="AL488" s="7"/>
     </row>
-    <row r="489" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -21703,7 +21703,7 @@
       <c r="AK489" s="7"/>
       <c r="AL489" s="7"/>
     </row>
-    <row r="490" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -21743,7 +21743,7 @@
       <c r="AK490" s="7"/>
       <c r="AL490" s="7"/>
     </row>
-    <row r="491" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -21783,7 +21783,7 @@
       <c r="AK491" s="7"/>
       <c r="AL491" s="7"/>
     </row>
-    <row r="492" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -21823,7 +21823,7 @@
       <c r="AK492" s="7"/>
       <c r="AL492" s="7"/>
     </row>
-    <row r="493" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -21863,7 +21863,7 @@
       <c r="AK493" s="7"/>
       <c r="AL493" s="7"/>
     </row>
-    <row r="494" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -21903,7 +21903,7 @@
       <c r="AK494" s="7"/>
       <c r="AL494" s="7"/>
     </row>
-    <row r="495" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -21943,7 +21943,7 @@
       <c r="AK495" s="7"/>
       <c r="AL495" s="7"/>
     </row>
-    <row r="496" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -21983,7 +21983,7 @@
       <c r="AK496" s="7"/>
       <c r="AL496" s="7"/>
     </row>
-    <row r="497" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -22023,7 +22023,7 @@
       <c r="AK497" s="7"/>
       <c r="AL497" s="7"/>
     </row>
-    <row r="498" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -22063,7 +22063,7 @@
       <c r="AK498" s="7"/>
       <c r="AL498" s="7"/>
     </row>
-    <row r="499" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -22103,7 +22103,7 @@
       <c r="AK499" s="7"/>
       <c r="AL499" s="7"/>
     </row>
-    <row r="500" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -22143,7 +22143,7 @@
       <c r="AK500" s="7"/>
       <c r="AL500" s="7"/>
     </row>
-    <row r="501" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -22183,7 +22183,7 @@
       <c r="AK501" s="7"/>
       <c r="AL501" s="7"/>
     </row>
-    <row r="502" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -22223,7 +22223,7 @@
       <c r="AK502" s="7"/>
       <c r="AL502" s="7"/>
     </row>
-    <row r="503" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -22263,7 +22263,7 @@
       <c r="AK503" s="7"/>
       <c r="AL503" s="7"/>
     </row>
-    <row r="504" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -22303,7 +22303,7 @@
       <c r="AK504" s="7"/>
       <c r="AL504" s="7"/>
     </row>
-    <row r="505" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -22343,7 +22343,7 @@
       <c r="AK505" s="7"/>
       <c r="AL505" s="7"/>
     </row>
-    <row r="506" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -22383,7 +22383,7 @@
       <c r="AK506" s="7"/>
       <c r="AL506" s="7"/>
     </row>
-    <row r="507" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -22423,7 +22423,7 @@
       <c r="AK507" s="7"/>
       <c r="AL507" s="7"/>
     </row>
-    <row r="508" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -22463,7 +22463,7 @@
       <c r="AK508" s="7"/>
       <c r="AL508" s="7"/>
     </row>
-    <row r="509" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -22503,7 +22503,7 @@
       <c r="AK509" s="7"/>
       <c r="AL509" s="7"/>
     </row>
-    <row r="510" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -22543,7 +22543,7 @@
       <c r="AK510" s="7"/>
       <c r="AL510" s="7"/>
     </row>
-    <row r="511" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -22583,7 +22583,7 @@
       <c r="AK511" s="7"/>
       <c r="AL511" s="7"/>
     </row>
-    <row r="512" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -22623,7 +22623,7 @@
       <c r="AK512" s="7"/>
       <c r="AL512" s="7"/>
     </row>
-    <row r="513" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -22663,7 +22663,7 @@
       <c r="AK513" s="7"/>
       <c r="AL513" s="7"/>
     </row>
-    <row r="514" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -22703,7 +22703,7 @@
       <c r="AK514" s="7"/>
       <c r="AL514" s="7"/>
     </row>
-    <row r="515" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -22743,7 +22743,7 @@
       <c r="AK515" s="7"/>
       <c r="AL515" s="7"/>
     </row>
-    <row r="516" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -22783,7 +22783,7 @@
       <c r="AK516" s="7"/>
       <c r="AL516" s="7"/>
     </row>
-    <row r="517" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -22823,7 +22823,7 @@
       <c r="AK517" s="7"/>
       <c r="AL517" s="7"/>
     </row>
-    <row r="518" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -22863,7 +22863,7 @@
       <c r="AK518" s="7"/>
       <c r="AL518" s="7"/>
     </row>
-    <row r="519" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -22903,7 +22903,7 @@
       <c r="AK519" s="7"/>
       <c r="AL519" s="7"/>
     </row>
-    <row r="520" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -22943,7 +22943,7 @@
       <c r="AK520" s="7"/>
       <c r="AL520" s="7"/>
     </row>
-    <row r="521" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -22983,7 +22983,7 @@
       <c r="AK521" s="7"/>
       <c r="AL521" s="7"/>
     </row>
-    <row r="522" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -23023,7 +23023,7 @@
       <c r="AK522" s="7"/>
       <c r="AL522" s="7"/>
     </row>
-    <row r="523" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -23063,7 +23063,7 @@
       <c r="AK523" s="7"/>
       <c r="AL523" s="7"/>
     </row>
-    <row r="524" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -23103,7 +23103,7 @@
       <c r="AK524" s="7"/>
       <c r="AL524" s="7"/>
     </row>
-    <row r="525" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -23143,7 +23143,7 @@
       <c r="AK525" s="7"/>
       <c r="AL525" s="7"/>
     </row>
-    <row r="526" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -23183,7 +23183,7 @@
       <c r="AK526" s="7"/>
       <c r="AL526" s="7"/>
     </row>
-    <row r="527" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -23223,7 +23223,7 @@
       <c r="AK527" s="7"/>
       <c r="AL527" s="7"/>
     </row>
-    <row r="528" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -23263,7 +23263,7 @@
       <c r="AK528" s="7"/>
       <c r="AL528" s="7"/>
     </row>
-    <row r="529" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -23303,7 +23303,7 @@
       <c r="AK529" s="7"/>
       <c r="AL529" s="7"/>
     </row>
-    <row r="530" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -23343,7 +23343,7 @@
       <c r="AK530" s="7"/>
       <c r="AL530" s="7"/>
     </row>
-    <row r="531" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -23383,7 +23383,7 @@
       <c r="AK531" s="7"/>
       <c r="AL531" s="7"/>
     </row>
-    <row r="532" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -23423,7 +23423,7 @@
       <c r="AK532" s="7"/>
       <c r="AL532" s="7"/>
     </row>
-    <row r="533" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -23463,7 +23463,7 @@
       <c r="AK533" s="7"/>
       <c r="AL533" s="7"/>
     </row>
-    <row r="534" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -23503,7 +23503,7 @@
       <c r="AK534" s="7"/>
       <c r="AL534" s="7"/>
     </row>
-    <row r="535" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -23543,7 +23543,7 @@
       <c r="AK535" s="7"/>
       <c r="AL535" s="7"/>
     </row>
-    <row r="536" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -23583,7 +23583,7 @@
       <c r="AK536" s="7"/>
       <c r="AL536" s="7"/>
     </row>
-    <row r="537" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -23623,7 +23623,7 @@
       <c r="AK537" s="7"/>
       <c r="AL537" s="7"/>
     </row>
-    <row r="538" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -23663,7 +23663,7 @@
       <c r="AK538" s="7"/>
       <c r="AL538" s="7"/>
     </row>
-    <row r="539" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -23703,7 +23703,7 @@
       <c r="AK539" s="7"/>
       <c r="AL539" s="7"/>
     </row>
-    <row r="540" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -23743,7 +23743,7 @@
       <c r="AK540" s="7"/>
       <c r="AL540" s="7"/>
     </row>
-    <row r="541" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -23783,7 +23783,7 @@
       <c r="AK541" s="7"/>
       <c r="AL541" s="7"/>
     </row>
-    <row r="542" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -23823,7 +23823,7 @@
       <c r="AK542" s="7"/>
       <c r="AL542" s="7"/>
     </row>
-    <row r="543" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -23863,7 +23863,7 @@
       <c r="AK543" s="7"/>
       <c r="AL543" s="7"/>
     </row>
-    <row r="544" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -23903,7 +23903,7 @@
       <c r="AK544" s="7"/>
       <c r="AL544" s="7"/>
     </row>
-    <row r="545" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -23943,7 +23943,7 @@
       <c r="AK545" s="7"/>
       <c r="AL545" s="7"/>
     </row>
-    <row r="546" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -23983,7 +23983,7 @@
       <c r="AK546" s="7"/>
       <c r="AL546" s="7"/>
     </row>
-    <row r="547" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -24023,7 +24023,7 @@
       <c r="AK547" s="7"/>
       <c r="AL547" s="7"/>
     </row>
-    <row r="548" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -24063,7 +24063,7 @@
       <c r="AK548" s="7"/>
       <c r="AL548" s="7"/>
     </row>
-    <row r="549" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -24103,7 +24103,7 @@
       <c r="AK549" s="7"/>
       <c r="AL549" s="7"/>
     </row>
-    <row r="550" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -24143,7 +24143,7 @@
       <c r="AK550" s="7"/>
       <c r="AL550" s="7"/>
     </row>
-    <row r="551" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -24183,7 +24183,7 @@
       <c r="AK551" s="7"/>
       <c r="AL551" s="7"/>
     </row>
-    <row r="552" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -24223,7 +24223,7 @@
       <c r="AK552" s="7"/>
       <c r="AL552" s="7"/>
     </row>
-    <row r="553" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -24263,7 +24263,7 @@
       <c r="AK553" s="7"/>
       <c r="AL553" s="7"/>
     </row>
-    <row r="554" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -24303,7 +24303,7 @@
       <c r="AK554" s="7"/>
       <c r="AL554" s="7"/>
     </row>
-    <row r="555" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -24343,7 +24343,7 @@
       <c r="AK555" s="7"/>
       <c r="AL555" s="7"/>
     </row>
-    <row r="556" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -24383,7 +24383,7 @@
       <c r="AK556" s="7"/>
       <c r="AL556" s="7"/>
     </row>
-    <row r="557" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -24423,7 +24423,7 @@
       <c r="AK557" s="7"/>
       <c r="AL557" s="7"/>
     </row>
-    <row r="558" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -24463,7 +24463,7 @@
       <c r="AK558" s="7"/>
       <c r="AL558" s="7"/>
     </row>
-    <row r="559" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -24503,7 +24503,7 @@
       <c r="AK559" s="7"/>
       <c r="AL559" s="7"/>
     </row>
-    <row r="560" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -24543,7 +24543,7 @@
       <c r="AK560" s="7"/>
       <c r="AL560" s="7"/>
     </row>
-    <row r="561" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -24583,7 +24583,7 @@
       <c r="AK561" s="7"/>
       <c r="AL561" s="7"/>
     </row>
-    <row r="562" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -24623,7 +24623,7 @@
       <c r="AK562" s="7"/>
       <c r="AL562" s="7"/>
     </row>
-    <row r="563" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -24663,7 +24663,7 @@
       <c r="AK563" s="7"/>
       <c r="AL563" s="7"/>
     </row>
-    <row r="564" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -24703,7 +24703,7 @@
       <c r="AK564" s="7"/>
       <c r="AL564" s="7"/>
     </row>
-    <row r="565" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -24743,7 +24743,7 @@
       <c r="AK565" s="7"/>
       <c r="AL565" s="7"/>
     </row>
-    <row r="566" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -24783,7 +24783,7 @@
       <c r="AK566" s="7"/>
       <c r="AL566" s="7"/>
     </row>
-    <row r="567" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -24823,7 +24823,7 @@
       <c r="AK567" s="7"/>
       <c r="AL567" s="7"/>
     </row>
-    <row r="568" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -24863,7 +24863,7 @@
       <c r="AK568" s="7"/>
       <c r="AL568" s="7"/>
     </row>
-    <row r="569" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -24903,7 +24903,7 @@
       <c r="AK569" s="7"/>
       <c r="AL569" s="7"/>
     </row>
-    <row r="570" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -24943,7 +24943,7 @@
       <c r="AK570" s="7"/>
       <c r="AL570" s="7"/>
     </row>
-    <row r="571" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A571" s="7"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -24983,7 +24983,7 @@
       <c r="AK571" s="7"/>
       <c r="AL571" s="7"/>
     </row>
-    <row r="572" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A572" s="7"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -25023,7 +25023,7 @@
       <c r="AK572" s="7"/>
       <c r="AL572" s="7"/>
     </row>
-    <row r="573" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A573" s="7"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -25063,7 +25063,7 @@
       <c r="AK573" s="7"/>
       <c r="AL573" s="7"/>
     </row>
-    <row r="574" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A574" s="7"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -25103,7 +25103,7 @@
       <c r="AK574" s="7"/>
       <c r="AL574" s="7"/>
     </row>
-    <row r="575" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A575" s="7"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -25143,7 +25143,7 @@
       <c r="AK575" s="7"/>
       <c r="AL575" s="7"/>
     </row>
-    <row r="576" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A576" s="7"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -25183,7 +25183,7 @@
       <c r="AK576" s="7"/>
       <c r="AL576" s="7"/>
     </row>
-    <row r="577" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A577" s="7"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -25223,7 +25223,7 @@
       <c r="AK577" s="7"/>
       <c r="AL577" s="7"/>
     </row>
-    <row r="578" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A578" s="7"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -25263,7 +25263,7 @@
       <c r="AK578" s="7"/>
       <c r="AL578" s="7"/>
     </row>
-    <row r="579" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A579" s="7"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -25303,7 +25303,7 @@
       <c r="AK579" s="7"/>
       <c r="AL579" s="7"/>
     </row>
-    <row r="580" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A580" s="7"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -25343,7 +25343,7 @@
       <c r="AK580" s="7"/>
       <c r="AL580" s="7"/>
     </row>
-    <row r="581" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A581" s="7"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -25383,7 +25383,7 @@
       <c r="AK581" s="7"/>
       <c r="AL581" s="7"/>
     </row>
-    <row r="582" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A582" s="7"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -25423,7 +25423,7 @@
       <c r="AK582" s="7"/>
       <c r="AL582" s="7"/>
     </row>
-    <row r="583" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A583" s="7"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -25463,7 +25463,7 @@
       <c r="AK583" s="7"/>
       <c r="AL583" s="7"/>
     </row>
-    <row r="584" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A584" s="7"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -25503,7 +25503,7 @@
       <c r="AK584" s="7"/>
       <c r="AL584" s="7"/>
     </row>
-    <row r="585" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A585" s="7"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -25543,7 +25543,7 @@
       <c r="AK585" s="7"/>
       <c r="AL585" s="7"/>
     </row>
-    <row r="586" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A586" s="7"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -25583,7 +25583,7 @@
       <c r="AK586" s="7"/>
       <c r="AL586" s="7"/>
     </row>
-    <row r="587" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A587" s="7"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -25623,7 +25623,7 @@
       <c r="AK587" s="7"/>
       <c r="AL587" s="7"/>
     </row>
-    <row r="588" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A588" s="7"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -25663,7 +25663,7 @@
       <c r="AK588" s="7"/>
       <c r="AL588" s="7"/>
     </row>
-    <row r="589" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A589" s="7"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -25703,7 +25703,7 @@
       <c r="AK589" s="7"/>
       <c r="AL589" s="7"/>
     </row>
-    <row r="590" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A590" s="7"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -25743,7 +25743,7 @@
       <c r="AK590" s="7"/>
       <c r="AL590" s="7"/>
     </row>
-    <row r="591" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A591" s="7"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -25783,7 +25783,7 @@
       <c r="AK591" s="7"/>
       <c r="AL591" s="7"/>
     </row>
-    <row r="592" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A592" s="7"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -25823,7 +25823,7 @@
       <c r="AK592" s="7"/>
       <c r="AL592" s="7"/>
     </row>
-    <row r="593" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A593" s="7"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -25863,7 +25863,7 @@
       <c r="AK593" s="7"/>
       <c r="AL593" s="7"/>
     </row>
-    <row r="594" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A594" s="7"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -25903,7 +25903,7 @@
       <c r="AK594" s="7"/>
       <c r="AL594" s="7"/>
     </row>
-    <row r="595" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A595" s="7"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -25943,7 +25943,7 @@
       <c r="AK595" s="7"/>
       <c r="AL595" s="7"/>
     </row>
-    <row r="596" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A596" s="7"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -25983,7 +25983,7 @@
       <c r="AK596" s="7"/>
       <c r="AL596" s="7"/>
     </row>
-    <row r="597" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A597" s="7"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -26023,7 +26023,7 @@
       <c r="AK597" s="7"/>
       <c r="AL597" s="7"/>
     </row>
-    <row r="598" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A598" s="7"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -26063,7 +26063,7 @@
       <c r="AK598" s="7"/>
       <c r="AL598" s="7"/>
     </row>
-    <row r="599" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A599" s="7"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -26103,7 +26103,7 @@
       <c r="AK599" s="7"/>
       <c r="AL599" s="7"/>
     </row>
-    <row r="600" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A600" s="7"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -26143,7 +26143,7 @@
       <c r="AK600" s="7"/>
       <c r="AL600" s="7"/>
     </row>
-    <row r="601" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A601" s="7"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -26183,7 +26183,7 @@
       <c r="AK601" s="7"/>
       <c r="AL601" s="7"/>
     </row>
-    <row r="602" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A602" s="7"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -26223,7 +26223,7 @@
       <c r="AK602" s="7"/>
       <c r="AL602" s="7"/>
     </row>
-    <row r="603" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A603" s="7"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -26263,7 +26263,7 @@
       <c r="AK603" s="7"/>
       <c r="AL603" s="7"/>
     </row>
-    <row r="604" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A604" s="7"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -26303,7 +26303,7 @@
       <c r="AK604" s="7"/>
       <c r="AL604" s="7"/>
     </row>
-    <row r="605" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A605" s="7"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -26343,7 +26343,7 @@
       <c r="AK605" s="7"/>
       <c r="AL605" s="7"/>
     </row>
-    <row r="606" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A606" s="7"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -26383,7 +26383,7 @@
       <c r="AK606" s="7"/>
       <c r="AL606" s="7"/>
     </row>
-    <row r="607" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A607" s="7"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -26423,7 +26423,7 @@
       <c r="AK607" s="7"/>
       <c r="AL607" s="7"/>
     </row>
-    <row r="608" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A608" s="7"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -26463,7 +26463,7 @@
       <c r="AK608" s="7"/>
       <c r="AL608" s="7"/>
     </row>
-    <row r="609" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A609" s="7"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -26503,7 +26503,7 @@
       <c r="AK609" s="7"/>
       <c r="AL609" s="7"/>
     </row>
-    <row r="610" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A610" s="7"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -26543,7 +26543,7 @@
       <c r="AK610" s="7"/>
       <c r="AL610" s="7"/>
     </row>
-    <row r="611" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A611" s="7"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -26583,7 +26583,7 @@
       <c r="AK611" s="7"/>
       <c r="AL611" s="7"/>
     </row>
-    <row r="612" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A612" s="7"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -26623,7 +26623,7 @@
       <c r="AK612" s="7"/>
       <c r="AL612" s="7"/>
     </row>
-    <row r="613" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A613" s="7"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -26663,7 +26663,7 @@
       <c r="AK613" s="7"/>
       <c r="AL613" s="7"/>
     </row>
-    <row r="614" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A614" s="7"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -26703,7 +26703,7 @@
       <c r="AK614" s="7"/>
       <c r="AL614" s="7"/>
     </row>
-    <row r="615" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A615" s="7"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -26743,7 +26743,7 @@
       <c r="AK615" s="7"/>
       <c r="AL615" s="7"/>
     </row>
-    <row r="616" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A616" s="7"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -26783,7 +26783,7 @@
       <c r="AK616" s="7"/>
       <c r="AL616" s="7"/>
     </row>
-    <row r="617" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A617" s="7"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -26823,7 +26823,7 @@
       <c r="AK617" s="7"/>
       <c r="AL617" s="7"/>
     </row>
-    <row r="618" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A618" s="7"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -26863,7 +26863,7 @@
       <c r="AK618" s="7"/>
       <c r="AL618" s="7"/>
     </row>
-    <row r="619" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A619" s="7"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -26903,7 +26903,7 @@
       <c r="AK619" s="7"/>
       <c r="AL619" s="7"/>
     </row>
-    <row r="620" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A620" s="7"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -26943,7 +26943,7 @@
       <c r="AK620" s="7"/>
       <c r="AL620" s="7"/>
     </row>
-    <row r="621" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A621" s="7"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -26983,7 +26983,7 @@
       <c r="AK621" s="7"/>
       <c r="AL621" s="7"/>
     </row>
-    <row r="622" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A622" s="7"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -27023,7 +27023,7 @@
       <c r="AK622" s="7"/>
       <c r="AL622" s="7"/>
     </row>
-    <row r="623" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A623" s="7"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -27063,7 +27063,7 @@
       <c r="AK623" s="7"/>
       <c r="AL623" s="7"/>
     </row>
-    <row r="624" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A624" s="7"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -27103,7 +27103,7 @@
       <c r="AK624" s="7"/>
       <c r="AL624" s="7"/>
     </row>
-    <row r="625" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A625" s="7"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -27143,7 +27143,7 @@
       <c r="AK625" s="7"/>
       <c r="AL625" s="7"/>
     </row>
-    <row r="626" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A626" s="7"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -27183,7 +27183,7 @@
       <c r="AK626" s="7"/>
       <c r="AL626" s="7"/>
     </row>
-    <row r="627" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A627" s="7"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -27223,7 +27223,7 @@
       <c r="AK627" s="7"/>
       <c r="AL627" s="7"/>
     </row>
-    <row r="628" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A628" s="7"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -27263,7 +27263,7 @@
       <c r="AK628" s="7"/>
       <c r="AL628" s="7"/>
     </row>
-    <row r="629" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A629" s="7"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -27303,7 +27303,7 @@
       <c r="AK629" s="7"/>
       <c r="AL629" s="7"/>
     </row>
-    <row r="630" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A630" s="7"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -27343,7 +27343,7 @@
       <c r="AK630" s="7"/>
       <c r="AL630" s="7"/>
     </row>
-    <row r="631" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A631" s="7"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -27383,7 +27383,7 @@
       <c r="AK631" s="7"/>
       <c r="AL631" s="7"/>
     </row>
-    <row r="632" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A632" s="7"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -27423,7 +27423,7 @@
       <c r="AK632" s="7"/>
       <c r="AL632" s="7"/>
     </row>
-    <row r="633" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A633" s="7"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -27463,7 +27463,7 @@
       <c r="AK633" s="7"/>
       <c r="AL633" s="7"/>
     </row>
-    <row r="634" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A634" s="7"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -27503,7 +27503,7 @@
       <c r="AK634" s="7"/>
       <c r="AL634" s="7"/>
     </row>
-    <row r="635" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A635" s="7"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -27543,7 +27543,7 @@
       <c r="AK635" s="7"/>
       <c r="AL635" s="7"/>
     </row>
-    <row r="636" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A636" s="7"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -27583,7 +27583,7 @@
       <c r="AK636" s="7"/>
       <c r="AL636" s="7"/>
     </row>
-    <row r="637" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A637" s="7"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -27623,7 +27623,7 @@
       <c r="AK637" s="7"/>
       <c r="AL637" s="7"/>
     </row>
-    <row r="638" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A638" s="7"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -27663,7 +27663,7 @@
       <c r="AK638" s="7"/>
       <c r="AL638" s="7"/>
     </row>
-    <row r="639" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A639" s="7"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -27703,7 +27703,7 @@
       <c r="AK639" s="7"/>
       <c r="AL639" s="7"/>
     </row>
-    <row r="640" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A640" s="7"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -27743,7 +27743,7 @@
       <c r="AK640" s="7"/>
       <c r="AL640" s="7"/>
     </row>
-    <row r="641" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A641" s="7"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -27783,7 +27783,7 @@
       <c r="AK641" s="7"/>
       <c r="AL641" s="7"/>
     </row>
-    <row r="642" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A642" s="7"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -27823,7 +27823,7 @@
       <c r="AK642" s="7"/>
       <c r="AL642" s="7"/>
     </row>
-    <row r="643" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A643" s="7"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -27863,7 +27863,7 @@
       <c r="AK643" s="7"/>
       <c r="AL643" s="7"/>
     </row>
-    <row r="644" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A644" s="7"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -27903,7 +27903,7 @@
       <c r="AK644" s="7"/>
       <c r="AL644" s="7"/>
     </row>
-    <row r="645" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A645" s="7"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -27943,7 +27943,7 @@
       <c r="AK645" s="7"/>
       <c r="AL645" s="7"/>
     </row>
-    <row r="646" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A646" s="7"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -27983,7 +27983,7 @@
       <c r="AK646" s="7"/>
       <c r="AL646" s="7"/>
     </row>
-    <row r="647" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A647" s="7"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -28023,7 +28023,7 @@
       <c r="AK647" s="7"/>
       <c r="AL647" s="7"/>
     </row>
-    <row r="648" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A648" s="7"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -28063,7 +28063,7 @@
       <c r="AK648" s="7"/>
       <c r="AL648" s="7"/>
     </row>
-    <row r="649" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A649" s="7"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -28103,7 +28103,7 @@
       <c r="AK649" s="7"/>
       <c r="AL649" s="7"/>
     </row>
-    <row r="650" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A650" s="7"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -28143,7 +28143,7 @@
       <c r="AK650" s="7"/>
       <c r="AL650" s="7"/>
     </row>
-    <row r="651" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A651" s="7"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -28183,7 +28183,7 @@
       <c r="AK651" s="7"/>
       <c r="AL651" s="7"/>
     </row>
-    <row r="652" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A652" s="7"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -28223,7 +28223,7 @@
       <c r="AK652" s="7"/>
       <c r="AL652" s="7"/>
     </row>
-    <row r="653" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A653" s="7"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -28263,7 +28263,7 @@
       <c r="AK653" s="7"/>
       <c r="AL653" s="7"/>
     </row>
-    <row r="654" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A654" s="7"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -28303,7 +28303,7 @@
       <c r="AK654" s="7"/>
       <c r="AL654" s="7"/>
     </row>
-    <row r="655" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A655" s="7"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -28343,7 +28343,7 @@
       <c r="AK655" s="7"/>
       <c r="AL655" s="7"/>
     </row>
-    <row r="656" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A656" s="7"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -28383,7 +28383,7 @@
       <c r="AK656" s="7"/>
       <c r="AL656" s="7"/>
     </row>
-    <row r="657" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A657" s="7"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -28423,7 +28423,7 @@
       <c r="AK657" s="7"/>
       <c r="AL657" s="7"/>
     </row>
-    <row r="658" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A658" s="7"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -28463,7 +28463,7 @@
       <c r="AK658" s="7"/>
       <c r="AL658" s="7"/>
     </row>
-    <row r="659" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A659" s="7"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -28503,7 +28503,7 @@
       <c r="AK659" s="7"/>
       <c r="AL659" s="7"/>
     </row>
-    <row r="660" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A660" s="7"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -28543,7 +28543,7 @@
       <c r="AK660" s="7"/>
       <c r="AL660" s="7"/>
     </row>
-    <row r="661" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A661" s="7"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -28583,7 +28583,7 @@
       <c r="AK661" s="7"/>
       <c r="AL661" s="7"/>
     </row>
-    <row r="662" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A662" s="7"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -28623,7 +28623,7 @@
       <c r="AK662" s="7"/>
       <c r="AL662" s="7"/>
     </row>
-    <row r="663" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A663" s="7"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -28663,7 +28663,7 @@
       <c r="AK663" s="7"/>
       <c r="AL663" s="7"/>
     </row>
-    <row r="664" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A664" s="7"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -28703,7 +28703,7 @@
       <c r="AK664" s="7"/>
       <c r="AL664" s="7"/>
     </row>
-    <row r="665" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A665" s="7"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -28743,7 +28743,7 @@
       <c r="AK665" s="7"/>
       <c r="AL665" s="7"/>
     </row>
-    <row r="666" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A666" s="7"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -28783,7 +28783,7 @@
       <c r="AK666" s="7"/>
       <c r="AL666" s="7"/>
     </row>
-    <row r="667" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A667" s="7"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -28823,7 +28823,7 @@
       <c r="AK667" s="7"/>
       <c r="AL667" s="7"/>
     </row>
-    <row r="668" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A668" s="7"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -28863,7 +28863,7 @@
       <c r="AK668" s="7"/>
       <c r="AL668" s="7"/>
     </row>
-    <row r="669" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A669" s="7"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -28903,7 +28903,7 @@
       <c r="AK669" s="7"/>
       <c r="AL669" s="7"/>
     </row>
-    <row r="670" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A670" s="7"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -28943,7 +28943,7 @@
       <c r="AK670" s="7"/>
       <c r="AL670" s="7"/>
     </row>
-    <row r="671" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A671" s="7"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -28983,7 +28983,7 @@
       <c r="AK671" s="7"/>
       <c r="AL671" s="7"/>
     </row>
-    <row r="672" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A672" s="7"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -29023,7 +29023,7 @@
       <c r="AK672" s="7"/>
       <c r="AL672" s="7"/>
     </row>
-    <row r="673" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A673" s="7"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -29063,7 +29063,7 @@
       <c r="AK673" s="7"/>
       <c r="AL673" s="7"/>
     </row>
-    <row r="674" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A674" s="7"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -29103,7 +29103,7 @@
       <c r="AK674" s="7"/>
       <c r="AL674" s="7"/>
     </row>
-    <row r="675" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A675" s="7"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -29143,7 +29143,7 @@
       <c r="AK675" s="7"/>
       <c r="AL675" s="7"/>
     </row>
-    <row r="676" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A676" s="7"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -29183,7 +29183,7 @@
       <c r="AK676" s="7"/>
       <c r="AL676" s="7"/>
     </row>
-    <row r="677" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A677" s="7"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -29223,7 +29223,7 @@
       <c r="AK677" s="7"/>
       <c r="AL677" s="7"/>
     </row>
-    <row r="678" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A678" s="7"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -29263,7 +29263,7 @@
       <c r="AK678" s="7"/>
       <c r="AL678" s="7"/>
     </row>
-    <row r="679" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A679" s="7"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -29303,7 +29303,7 @@
       <c r="AK679" s="7"/>
       <c r="AL679" s="7"/>
     </row>
-    <row r="680" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A680" s="7"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -29343,7 +29343,7 @@
       <c r="AK680" s="7"/>
       <c r="AL680" s="7"/>
     </row>
-    <row r="681" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A681" s="7"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -29383,7 +29383,7 @@
       <c r="AK681" s="7"/>
       <c r="AL681" s="7"/>
     </row>
-    <row r="682" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A682" s="7"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -29423,7 +29423,7 @@
       <c r="AK682" s="7"/>
       <c r="AL682" s="7"/>
     </row>
-    <row r="683" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A683" s="7"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -29463,7 +29463,7 @@
       <c r="AK683" s="7"/>
       <c r="AL683" s="7"/>
     </row>
-    <row r="684" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A684" s="7"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -29503,7 +29503,7 @@
       <c r="AK684" s="7"/>
       <c r="AL684" s="7"/>
     </row>
-    <row r="685" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A685" s="7"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -29543,7 +29543,7 @@
       <c r="AK685" s="7"/>
       <c r="AL685" s="7"/>
     </row>
-    <row r="686" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A686" s="7"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -29583,7 +29583,7 @@
       <c r="AK686" s="7"/>
       <c r="AL686" s="7"/>
     </row>
-    <row r="687" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A687" s="7"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -29623,7 +29623,7 @@
       <c r="AK687" s="7"/>
       <c r="AL687" s="7"/>
     </row>
-    <row r="688" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A688" s="7"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -29663,7 +29663,7 @@
       <c r="AK688" s="7"/>
       <c r="AL688" s="7"/>
     </row>
-    <row r="689" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A689" s="7"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -29703,7 +29703,7 @@
       <c r="AK689" s="7"/>
       <c r="AL689" s="7"/>
     </row>
-    <row r="690" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A690" s="7"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -29743,7 +29743,7 @@
       <c r="AK690" s="7"/>
       <c r="AL690" s="7"/>
     </row>
-    <row r="691" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A691" s="7"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -29783,7 +29783,7 @@
       <c r="AK691" s="7"/>
       <c r="AL691" s="7"/>
     </row>
-    <row r="692" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A692" s="7"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -29823,7 +29823,7 @@
       <c r="AK692" s="7"/>
       <c r="AL692" s="7"/>
     </row>
-    <row r="693" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A693" s="7"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -29863,7 +29863,7 @@
       <c r="AK693" s="7"/>
       <c r="AL693" s="7"/>
     </row>
-    <row r="694" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A694" s="7"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -29903,7 +29903,7 @@
       <c r="AK694" s="7"/>
       <c r="AL694" s="7"/>
     </row>
-    <row r="695" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A695" s="7"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -29943,7 +29943,7 @@
       <c r="AK695" s="7"/>
       <c r="AL695" s="7"/>
     </row>
-    <row r="696" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A696" s="7"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -29983,7 +29983,7 @@
       <c r="AK696" s="7"/>
       <c r="AL696" s="7"/>
     </row>
-    <row r="697" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A697" s="7"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -30023,7 +30023,7 @@
       <c r="AK697" s="7"/>
       <c r="AL697" s="7"/>
     </row>
-    <row r="698" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A698" s="7"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -30063,7 +30063,7 @@
       <c r="AK698" s="7"/>
       <c r="AL698" s="7"/>
     </row>
-    <row r="699" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A699" s="7"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -30103,7 +30103,7 @@
       <c r="AK699" s="7"/>
       <c r="AL699" s="7"/>
     </row>
-    <row r="700" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A700" s="7"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -30143,7 +30143,7 @@
       <c r="AK700" s="7"/>
       <c r="AL700" s="7"/>
     </row>
-    <row r="701" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A701" s="7"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -30183,7 +30183,7 @@
       <c r="AK701" s="7"/>
       <c r="AL701" s="7"/>
     </row>
-    <row r="702" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A702" s="7"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -30223,7 +30223,7 @@
       <c r="AK702" s="7"/>
       <c r="AL702" s="7"/>
     </row>
-    <row r="703" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A703" s="7"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -30263,7 +30263,7 @@
       <c r="AK703" s="7"/>
       <c r="AL703" s="7"/>
     </row>
-    <row r="704" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A704" s="7"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -30303,7 +30303,7 @@
       <c r="AK704" s="7"/>
       <c r="AL704" s="7"/>
     </row>
-    <row r="705" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A705" s="7"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -30343,7 +30343,7 @@
       <c r="AK705" s="7"/>
       <c r="AL705" s="7"/>
     </row>
-    <row r="706" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A706" s="7"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -30383,7 +30383,7 @@
       <c r="AK706" s="7"/>
       <c r="AL706" s="7"/>
     </row>
-    <row r="707" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A707" s="7"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -30423,7 +30423,7 @@
       <c r="AK707" s="7"/>
       <c r="AL707" s="7"/>
     </row>
-    <row r="708" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A708" s="7"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -30463,7 +30463,7 @@
       <c r="AK708" s="7"/>
       <c r="AL708" s="7"/>
     </row>
-    <row r="709" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A709" s="7"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -30503,7 +30503,7 @@
       <c r="AK709" s="7"/>
       <c r="AL709" s="7"/>
     </row>
-    <row r="710" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A710" s="7"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -30543,7 +30543,7 @@
       <c r="AK710" s="7"/>
       <c r="AL710" s="7"/>
     </row>
-    <row r="711" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A711" s="7"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -30583,7 +30583,7 @@
       <c r="AK711" s="7"/>
       <c r="AL711" s="7"/>
     </row>
-    <row r="712" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A712" s="7"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -30623,7 +30623,7 @@
       <c r="AK712" s="7"/>
       <c r="AL712" s="7"/>
     </row>
-    <row r="713" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A713" s="7"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -30663,7 +30663,7 @@
       <c r="AK713" s="7"/>
       <c r="AL713" s="7"/>
     </row>
-    <row r="714" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A714" s="7"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -30703,7 +30703,7 @@
       <c r="AK714" s="7"/>
       <c r="AL714" s="7"/>
     </row>
-    <row r="715" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A715" s="7"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -30743,7 +30743,7 @@
       <c r="AK715" s="7"/>
       <c r="AL715" s="7"/>
     </row>
-    <row r="716" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A716" s="7"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -30783,7 +30783,7 @@
       <c r="AK716" s="7"/>
       <c r="AL716" s="7"/>
     </row>
-    <row r="717" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A717" s="7"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -30823,7 +30823,7 @@
       <c r="AK717" s="7"/>
       <c r="AL717" s="7"/>
     </row>
-    <row r="718" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A718" s="7"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -30863,7 +30863,7 @@
       <c r="AK718" s="7"/>
       <c r="AL718" s="7"/>
     </row>
-    <row r="719" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A719" s="7"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -30903,7 +30903,7 @@
       <c r="AK719" s="7"/>
       <c r="AL719" s="7"/>
     </row>
-    <row r="720" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A720" s="7"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -30943,7 +30943,7 @@
       <c r="AK720" s="7"/>
       <c r="AL720" s="7"/>
     </row>
-    <row r="721" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A721" s="7"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -30983,7 +30983,7 @@
       <c r="AK721" s="7"/>
       <c r="AL721" s="7"/>
     </row>
-    <row r="722" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A722" s="7"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -31023,7 +31023,7 @@
       <c r="AK722" s="7"/>
       <c r="AL722" s="7"/>
     </row>
-    <row r="723" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A723" s="7"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -31063,7 +31063,7 @@
       <c r="AK723" s="7"/>
       <c r="AL723" s="7"/>
     </row>
-    <row r="724" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A724" s="7"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -31103,7 +31103,7 @@
       <c r="AK724" s="7"/>
       <c r="AL724" s="7"/>
     </row>
-    <row r="725" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A725" s="7"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -31143,7 +31143,7 @@
       <c r="AK725" s="7"/>
       <c r="AL725" s="7"/>
     </row>
-    <row r="726" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A726" s="7"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -31183,7 +31183,7 @@
       <c r="AK726" s="7"/>
       <c r="AL726" s="7"/>
     </row>
-    <row r="727" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A727" s="7"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -31223,7 +31223,7 @@
       <c r="AK727" s="7"/>
       <c r="AL727" s="7"/>
     </row>
-    <row r="728" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A728" s="7"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -31263,7 +31263,7 @@
       <c r="AK728" s="7"/>
       <c r="AL728" s="7"/>
     </row>
-    <row r="729" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A729" s="7"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -31303,7 +31303,7 @@
       <c r="AK729" s="7"/>
       <c r="AL729" s="7"/>
     </row>
-    <row r="730" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A730" s="7"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -31343,7 +31343,7 @@
       <c r="AK730" s="7"/>
       <c r="AL730" s="7"/>
     </row>
-    <row r="731" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A731" s="7"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -31383,7 +31383,7 @@
       <c r="AK731" s="7"/>
       <c r="AL731" s="7"/>
     </row>
-    <row r="732" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A732" s="7"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -31423,7 +31423,7 @@
       <c r="AK732" s="7"/>
       <c r="AL732" s="7"/>
     </row>
-    <row r="733" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A733" s="7"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -31463,7 +31463,7 @@
       <c r="AK733" s="7"/>
       <c r="AL733" s="7"/>
     </row>
-    <row r="734" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A734" s="7"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -31503,7 +31503,7 @@
       <c r="AK734" s="7"/>
       <c r="AL734" s="7"/>
     </row>
-    <row r="735" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A735" s="7"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -31543,7 +31543,7 @@
       <c r="AK735" s="7"/>
       <c r="AL735" s="7"/>
     </row>
-    <row r="736" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A736" s="7"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -31583,7 +31583,7 @@
       <c r="AK736" s="7"/>
       <c r="AL736" s="7"/>
     </row>
-    <row r="737" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A737" s="7"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -31623,7 +31623,7 @@
       <c r="AK737" s="7"/>
       <c r="AL737" s="7"/>
     </row>
-    <row r="738" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A738" s="7"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -31663,7 +31663,7 @@
       <c r="AK738" s="7"/>
       <c r="AL738" s="7"/>
     </row>
-    <row r="739" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A739" s="7"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -31703,7 +31703,7 @@
       <c r="AK739" s="7"/>
       <c r="AL739" s="7"/>
     </row>
-    <row r="740" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A740" s="7"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -31743,7 +31743,7 @@
       <c r="AK740" s="7"/>
       <c r="AL740" s="7"/>
     </row>
-    <row r="741" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A741" s="7"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -31783,7 +31783,7 @@
       <c r="AK741" s="7"/>
       <c r="AL741" s="7"/>
     </row>
-    <row r="742" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A742" s="7"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -31823,7 +31823,7 @@
       <c r="AK742" s="7"/>
       <c r="AL742" s="7"/>
     </row>
-    <row r="743" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A743" s="7"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -31863,7 +31863,7 @@
       <c r="AK743" s="7"/>
       <c r="AL743" s="7"/>
     </row>
-    <row r="744" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A744" s="7"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -31903,7 +31903,7 @@
       <c r="AK744" s="7"/>
       <c r="AL744" s="7"/>
     </row>
-    <row r="745" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A745" s="7"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -31943,7 +31943,7 @@
       <c r="AK745" s="7"/>
       <c r="AL745" s="7"/>
     </row>
-    <row r="746" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A746" s="7"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -31983,7 +31983,7 @@
       <c r="AK746" s="7"/>
       <c r="AL746" s="7"/>
     </row>
-    <row r="747" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A747" s="7"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -32023,7 +32023,7 @@
       <c r="AK747" s="7"/>
       <c r="AL747" s="7"/>
     </row>
-    <row r="748" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A748" s="7"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -32063,7 +32063,7 @@
       <c r="AK748" s="7"/>
       <c r="AL748" s="7"/>
     </row>
-    <row r="749" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A749" s="7"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -32103,7 +32103,7 @@
       <c r="AK749" s="7"/>
       <c r="AL749" s="7"/>
     </row>
-    <row r="750" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A750" s="7"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -32143,7 +32143,7 @@
       <c r="AK750" s="7"/>
       <c r="AL750" s="7"/>
     </row>
-    <row r="751" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A751" s="7"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -32183,7 +32183,7 @@
       <c r="AK751" s="7"/>
       <c r="AL751" s="7"/>
     </row>
-    <row r="752" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A752" s="7"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -32223,7 +32223,7 @@
       <c r="AK752" s="7"/>
       <c r="AL752" s="7"/>
     </row>
-    <row r="753" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A753" s="7"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -32263,7 +32263,7 @@
       <c r="AK753" s="7"/>
       <c r="AL753" s="7"/>
     </row>
-    <row r="754" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A754" s="7"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -32303,7 +32303,7 @@
       <c r="AK754" s="7"/>
       <c r="AL754" s="7"/>
     </row>
-    <row r="755" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A755" s="7"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -32343,7 +32343,7 @@
       <c r="AK755" s="7"/>
       <c r="AL755" s="7"/>
     </row>
-    <row r="756" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A756" s="7"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -32383,7 +32383,7 @@
       <c r="AK756" s="7"/>
       <c r="AL756" s="7"/>
     </row>
-    <row r="757" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A757" s="7"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -32423,7 +32423,7 @@
       <c r="AK757" s="7"/>
       <c r="AL757" s="7"/>
     </row>
-    <row r="758" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A758" s="7"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -32463,7 +32463,7 @@
       <c r="AK758" s="7"/>
       <c r="AL758" s="7"/>
     </row>
-    <row r="759" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A759" s="7"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -32503,7 +32503,7 @@
       <c r="AK759" s="7"/>
       <c r="AL759" s="7"/>
     </row>
-    <row r="760" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A760" s="7"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -32543,7 +32543,7 @@
       <c r="AK760" s="7"/>
       <c r="AL760" s="7"/>
     </row>
-    <row r="761" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A761" s="7"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -32583,7 +32583,7 @@
       <c r="AK761" s="7"/>
       <c r="AL761" s="7"/>
     </row>
-    <row r="762" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A762" s="7"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -32623,7 +32623,7 @@
       <c r="AK762" s="7"/>
       <c r="AL762" s="7"/>
     </row>
-    <row r="763" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A763" s="7"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -32663,7 +32663,7 @@
       <c r="AK763" s="7"/>
       <c r="AL763" s="7"/>
     </row>
-    <row r="764" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A764" s="7"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -32703,7 +32703,7 @@
       <c r="AK764" s="7"/>
       <c r="AL764" s="7"/>
     </row>
-    <row r="765" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A765" s="7"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -32743,7 +32743,7 @@
       <c r="AK765" s="7"/>
       <c r="AL765" s="7"/>
     </row>
-    <row r="766" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A766" s="7"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -32783,7 +32783,7 @@
       <c r="AK766" s="7"/>
       <c r="AL766" s="7"/>
     </row>
-    <row r="767" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A767" s="7"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -32823,7 +32823,7 @@
       <c r="AK767" s="7"/>
       <c r="AL767" s="7"/>
     </row>
-    <row r="768" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A768" s="7"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -32863,7 +32863,7 @@
       <c r="AK768" s="7"/>
       <c r="AL768" s="7"/>
     </row>
-    <row r="769" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A769" s="7"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -32903,7 +32903,7 @@
       <c r="AK769" s="7"/>
       <c r="AL769" s="7"/>
     </row>
-    <row r="770" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A770" s="7"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -32943,7 +32943,7 @@
       <c r="AK770" s="7"/>
       <c r="AL770" s="7"/>
     </row>
-    <row r="771" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A771" s="7"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -32983,7 +32983,7 @@
       <c r="AK771" s="7"/>
       <c r="AL771" s="7"/>
     </row>
-    <row r="772" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A772" s="7"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -33023,7 +33023,7 @@
       <c r="AK772" s="7"/>
       <c r="AL772" s="7"/>
     </row>
-    <row r="773" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A773" s="7"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -33063,7 +33063,7 @@
       <c r="AK773" s="7"/>
       <c r="AL773" s="7"/>
     </row>
-    <row r="774" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A774" s="7"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -33103,7 +33103,7 @@
       <c r="AK774" s="7"/>
       <c r="AL774" s="7"/>
     </row>
-    <row r="775" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A775" s="7"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -33143,7 +33143,7 @@
       <c r="AK775" s="7"/>
       <c r="AL775" s="7"/>
     </row>
-    <row r="776" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A776" s="7"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -33183,7 +33183,7 @@
       <c r="AK776" s="7"/>
       <c r="AL776" s="7"/>
     </row>
-    <row r="777" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A777" s="7"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -33223,7 +33223,7 @@
       <c r="AK777" s="7"/>
       <c r="AL777" s="7"/>
     </row>
-    <row r="778" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A778" s="7"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -33263,7 +33263,7 @@
       <c r="AK778" s="7"/>
       <c r="AL778" s="7"/>
     </row>
-    <row r="779" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A779" s="7"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -33303,7 +33303,7 @@
       <c r="AK779" s="7"/>
       <c r="AL779" s="7"/>
     </row>
-    <row r="780" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A780" s="7"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -33343,7 +33343,7 @@
       <c r="AK780" s="7"/>
       <c r="AL780" s="7"/>
     </row>
-    <row r="781" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A781" s="7"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -33383,7 +33383,7 @@
       <c r="AK781" s="7"/>
       <c r="AL781" s="7"/>
     </row>
-    <row r="782" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A782" s="7"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -33423,7 +33423,7 @@
       <c r="AK782" s="7"/>
       <c r="AL782" s="7"/>
     </row>
-    <row r="783" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A783" s="7"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -33463,7 +33463,7 @@
       <c r="AK783" s="7"/>
       <c r="AL783" s="7"/>
     </row>
-    <row r="784" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -33503,7 +33503,7 @@
       <c r="AK784" s="7"/>
       <c r="AL784" s="7"/>
     </row>
-    <row r="785" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A785" s="7"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -33543,7 +33543,7 @@
       <c r="AK785" s="7"/>
       <c r="AL785" s="7"/>
     </row>
-    <row r="786" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -33583,7 +33583,7 @@
       <c r="AK786" s="7"/>
       <c r="AL786" s="7"/>
     </row>
-    <row r="787" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A787" s="7"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -33623,7 +33623,7 @@
       <c r="AK787" s="7"/>
       <c r="AL787" s="7"/>
     </row>
-    <row r="788" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A788" s="7"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -33663,7 +33663,7 @@
       <c r="AK788" s="7"/>
       <c r="AL788" s="7"/>
     </row>
-    <row r="789" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A789" s="7"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -33703,7 +33703,7 @@
       <c r="AK789" s="7"/>
       <c r="AL789" s="7"/>
     </row>
-    <row r="790" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A790" s="7"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -33743,7 +33743,7 @@
       <c r="AK790" s="7"/>
       <c r="AL790" s="7"/>
     </row>
-    <row r="791" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A791" s="7"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -33783,7 +33783,7 @@
       <c r="AK791" s="7"/>
       <c r="AL791" s="7"/>
     </row>
-    <row r="792" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A792" s="7"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -33823,7 +33823,7 @@
       <c r="AK792" s="7"/>
       <c r="AL792" s="7"/>
     </row>
-    <row r="793" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A793" s="7"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -33863,7 +33863,7 @@
       <c r="AK793" s="7"/>
       <c r="AL793" s="7"/>
     </row>
-    <row r="794" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A794" s="7"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -33903,7 +33903,7 @@
       <c r="AK794" s="7"/>
       <c r="AL794" s="7"/>
     </row>
-    <row r="795" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A795" s="7"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -33943,7 +33943,7 @@
       <c r="AK795" s="7"/>
       <c r="AL795" s="7"/>
     </row>
-    <row r="796" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A796" s="7"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -33983,7 +33983,7 @@
       <c r="AK796" s="7"/>
       <c r="AL796" s="7"/>
     </row>
-    <row r="797" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A797" s="7"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -34023,7 +34023,7 @@
       <c r="AK797" s="7"/>
       <c r="AL797" s="7"/>
     </row>
-    <row r="798" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A798" s="7"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -34063,7 +34063,7 @@
       <c r="AK798" s="7"/>
       <c r="AL798" s="7"/>
     </row>
-    <row r="799" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A799" s="7"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -34103,7 +34103,7 @@
       <c r="AK799" s="7"/>
       <c r="AL799" s="7"/>
     </row>
-    <row r="800" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A800" s="7"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -34143,7 +34143,7 @@
       <c r="AK800" s="7"/>
       <c r="AL800" s="7"/>
     </row>
-    <row r="801" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A801" s="7"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -34183,7 +34183,7 @@
       <c r="AK801" s="7"/>
       <c r="AL801" s="7"/>
     </row>
-    <row r="802" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A802" s="7"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -34223,7 +34223,7 @@
       <c r="AK802" s="7"/>
       <c r="AL802" s="7"/>
     </row>
-    <row r="803" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A803" s="7"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -34263,7 +34263,7 @@
       <c r="AK803" s="7"/>
       <c r="AL803" s="7"/>
     </row>
-    <row r="804" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A804" s="7"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -34303,7 +34303,7 @@
       <c r="AK804" s="7"/>
       <c r="AL804" s="7"/>
     </row>
-    <row r="805" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A805" s="7"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -34343,7 +34343,7 @@
       <c r="AK805" s="7"/>
       <c r="AL805" s="7"/>
     </row>
-    <row r="806" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A806" s="7"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -34383,7 +34383,7 @@
       <c r="AK806" s="7"/>
       <c r="AL806" s="7"/>
     </row>
-    <row r="807" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A807" s="7"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -34423,7 +34423,7 @@
       <c r="AK807" s="7"/>
       <c r="AL807" s="7"/>
     </row>
-    <row r="808" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A808" s="7"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -34463,7 +34463,7 @@
       <c r="AK808" s="7"/>
       <c r="AL808" s="7"/>
     </row>
-    <row r="809" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A809" s="7"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -34503,7 +34503,7 @@
       <c r="AK809" s="7"/>
       <c r="AL809" s="7"/>
     </row>
-    <row r="810" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A810" s="7"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -34543,7 +34543,7 @@
       <c r="AK810" s="7"/>
       <c r="AL810" s="7"/>
     </row>
-    <row r="811" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A811" s="7"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -34583,7 +34583,7 @@
       <c r="AK811" s="7"/>
       <c r="AL811" s="7"/>
     </row>
-    <row r="812" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A812" s="7"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -34623,7 +34623,7 @@
       <c r="AK812" s="7"/>
       <c r="AL812" s="7"/>
     </row>
-    <row r="813" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A813" s="7"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -34663,7 +34663,7 @@
       <c r="AK813" s="7"/>
       <c r="AL813" s="7"/>
     </row>
-    <row r="814" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A814" s="7"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -34703,7 +34703,7 @@
       <c r="AK814" s="7"/>
       <c r="AL814" s="7"/>
     </row>
-    <row r="815" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A815" s="7"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -34743,7 +34743,7 @@
       <c r="AK815" s="7"/>
       <c r="AL815" s="7"/>
     </row>
-    <row r="816" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A816" s="7"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -34783,7 +34783,7 @@
       <c r="AK816" s="7"/>
       <c r="AL816" s="7"/>
     </row>
-    <row r="817" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A817" s="7"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -34823,7 +34823,7 @@
       <c r="AK817" s="7"/>
       <c r="AL817" s="7"/>
     </row>
-    <row r="818" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A818" s="7"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -34863,7 +34863,7 @@
       <c r="AK818" s="7"/>
       <c r="AL818" s="7"/>
     </row>
-    <row r="819" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A819" s="7"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -34903,7 +34903,7 @@
       <c r="AK819" s="7"/>
       <c r="AL819" s="7"/>
     </row>
-    <row r="820" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A820" s="7"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -34943,7 +34943,7 @@
       <c r="AK820" s="7"/>
       <c r="AL820" s="7"/>
     </row>
-    <row r="821" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A821" s="7"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -34983,7 +34983,7 @@
       <c r="AK821" s="7"/>
       <c r="AL821" s="7"/>
     </row>
-    <row r="822" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A822" s="7"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -35023,7 +35023,7 @@
       <c r="AK822" s="7"/>
       <c r="AL822" s="7"/>
     </row>
-    <row r="823" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A823" s="7"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -35063,7 +35063,7 @@
       <c r="AK823" s="7"/>
       <c r="AL823" s="7"/>
     </row>
-    <row r="824" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A824" s="7"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -35103,7 +35103,7 @@
       <c r="AK824" s="7"/>
       <c r="AL824" s="7"/>
     </row>
-    <row r="825" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A825" s="7"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -35143,7 +35143,7 @@
       <c r="AK825" s="7"/>
       <c r="AL825" s="7"/>
     </row>
-    <row r="826" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A826" s="7"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -35183,7 +35183,7 @@
       <c r="AK826" s="7"/>
       <c r="AL826" s="7"/>
     </row>
-    <row r="827" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A827" s="7"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -35223,7 +35223,7 @@
       <c r="AK827" s="7"/>
       <c r="AL827" s="7"/>
     </row>
-    <row r="828" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A828" s="7"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -35263,7 +35263,7 @@
       <c r="AK828" s="7"/>
       <c r="AL828" s="7"/>
     </row>
-    <row r="829" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A829" s="7"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -35303,7 +35303,7 @@
       <c r="AK829" s="7"/>
       <c r="AL829" s="7"/>
     </row>
-    <row r="830" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A830" s="7"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -35343,7 +35343,7 @@
       <c r="AK830" s="7"/>
       <c r="AL830" s="7"/>
     </row>
-    <row r="831" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A831" s="7"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -35383,7 +35383,7 @@
       <c r="AK831" s="7"/>
       <c r="AL831" s="7"/>
     </row>
-    <row r="832" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A832" s="7"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -35423,7 +35423,7 @@
       <c r="AK832" s="7"/>
       <c r="AL832" s="7"/>
     </row>
-    <row r="833" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A833" s="7"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -35463,7 +35463,7 @@
       <c r="AK833" s="7"/>
       <c r="AL833" s="7"/>
     </row>
-    <row r="834" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A834" s="7"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -35503,7 +35503,7 @@
       <c r="AK834" s="7"/>
       <c r="AL834" s="7"/>
     </row>
-    <row r="835" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A835" s="7"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -35543,7 +35543,7 @@
       <c r="AK835" s="7"/>
       <c r="AL835" s="7"/>
     </row>
-    <row r="836" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A836" s="7"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -35583,7 +35583,7 @@
       <c r="AK836" s="7"/>
       <c r="AL836" s="7"/>
     </row>
-    <row r="837" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A837" s="7"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -35623,7 +35623,7 @@
       <c r="AK837" s="7"/>
       <c r="AL837" s="7"/>
     </row>
-    <row r="838" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A838" s="7"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -35663,7 +35663,7 @@
       <c r="AK838" s="7"/>
       <c r="AL838" s="7"/>
     </row>
-    <row r="839" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A839" s="7"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -35703,7 +35703,7 @@
       <c r="AK839" s="7"/>
       <c r="AL839" s="7"/>
     </row>
-    <row r="840" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A840" s="7"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -35743,7 +35743,7 @@
       <c r="AK840" s="7"/>
       <c r="AL840" s="7"/>
     </row>
-    <row r="841" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -35783,7 +35783,7 @@
       <c r="AK841" s="7"/>
       <c r="AL841" s="7"/>
     </row>
-    <row r="842" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -35823,7 +35823,7 @@
       <c r="AK842" s="7"/>
       <c r="AL842" s="7"/>
     </row>
-    <row r="843" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -35863,7 +35863,7 @@
       <c r="AK843" s="7"/>
       <c r="AL843" s="7"/>
     </row>
-    <row r="844" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -35903,7 +35903,7 @@
       <c r="AK844" s="7"/>
       <c r="AL844" s="7"/>
     </row>
-    <row r="845" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -35943,7 +35943,7 @@
       <c r="AK845" s="7"/>
       <c r="AL845" s="7"/>
     </row>
-    <row r="846" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -35983,7 +35983,7 @@
       <c r="AK846" s="7"/>
       <c r="AL846" s="7"/>
     </row>
-    <row r="847" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -36023,7 +36023,7 @@
       <c r="AK847" s="7"/>
       <c r="AL847" s="7"/>
     </row>
-    <row r="848" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -36063,7 +36063,7 @@
       <c r="AK848" s="7"/>
       <c r="AL848" s="7"/>
     </row>
-    <row r="849" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -36103,7 +36103,7 @@
       <c r="AK849" s="7"/>
       <c r="AL849" s="7"/>
     </row>
-    <row r="850" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -36143,7 +36143,7 @@
       <c r="AK850" s="7"/>
       <c r="AL850" s="7"/>
     </row>
-    <row r="851" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -36183,7 +36183,7 @@
       <c r="AK851" s="7"/>
       <c r="AL851" s="7"/>
     </row>
-    <row r="852" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -36223,7 +36223,7 @@
       <c r="AK852" s="7"/>
       <c r="AL852" s="7"/>
     </row>
-    <row r="853" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -36263,7 +36263,7 @@
       <c r="AK853" s="7"/>
       <c r="AL853" s="7"/>
     </row>
-    <row r="854" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -36303,7 +36303,7 @@
       <c r="AK854" s="7"/>
       <c r="AL854" s="7"/>
     </row>
-    <row r="855" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -36343,7 +36343,7 @@
       <c r="AK855" s="7"/>
       <c r="AL855" s="7"/>
     </row>
-    <row r="856" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -36383,7 +36383,7 @@
       <c r="AK856" s="7"/>
       <c r="AL856" s="7"/>
     </row>
-    <row r="857" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -36423,7 +36423,7 @@
       <c r="AK857" s="7"/>
       <c r="AL857" s="7"/>
     </row>
-    <row r="858" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -36463,7 +36463,7 @@
       <c r="AK858" s="7"/>
       <c r="AL858" s="7"/>
     </row>
-    <row r="859" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -36503,7 +36503,7 @@
       <c r="AK859" s="7"/>
       <c r="AL859" s="7"/>
     </row>
-    <row r="860" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -36543,7 +36543,7 @@
       <c r="AK860" s="7"/>
       <c r="AL860" s="7"/>
     </row>
-    <row r="861" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -36583,7 +36583,7 @@
       <c r="AK861" s="7"/>
       <c r="AL861" s="7"/>
     </row>
-    <row r="862" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -36623,7 +36623,7 @@
       <c r="AK862" s="7"/>
       <c r="AL862" s="7"/>
     </row>
-    <row r="863" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -36663,7 +36663,7 @@
       <c r="AK863" s="7"/>
       <c r="AL863" s="7"/>
     </row>
-    <row r="864" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -36703,7 +36703,7 @@
       <c r="AK864" s="7"/>
       <c r="AL864" s="7"/>
     </row>
-    <row r="865" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -36743,7 +36743,7 @@
       <c r="AK865" s="7"/>
       <c r="AL865" s="7"/>
     </row>
-    <row r="866" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -36783,7 +36783,7 @@
       <c r="AK866" s="7"/>
       <c r="AL866" s="7"/>
     </row>
-    <row r="867" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -36823,7 +36823,7 @@
       <c r="AK867" s="7"/>
       <c r="AL867" s="7"/>
     </row>
-    <row r="868" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -36863,7 +36863,7 @@
       <c r="AK868" s="7"/>
       <c r="AL868" s="7"/>
     </row>
-    <row r="869" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -36903,7 +36903,7 @@
       <c r="AK869" s="7"/>
       <c r="AL869" s="7"/>
     </row>
-    <row r="870" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -36943,7 +36943,7 @@
       <c r="AK870" s="7"/>
       <c r="AL870" s="7"/>
     </row>
-    <row r="871" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -36983,7 +36983,7 @@
       <c r="AK871" s="7"/>
       <c r="AL871" s="7"/>
     </row>
-    <row r="872" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -37023,7 +37023,7 @@
       <c r="AK872" s="7"/>
       <c r="AL872" s="7"/>
     </row>
-    <row r="873" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -37063,7 +37063,7 @@
       <c r="AK873" s="7"/>
       <c r="AL873" s="7"/>
     </row>
-    <row r="874" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -37103,7 +37103,7 @@
       <c r="AK874" s="7"/>
       <c r="AL874" s="7"/>
     </row>
-    <row r="875" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -37143,7 +37143,7 @@
       <c r="AK875" s="7"/>
       <c r="AL875" s="7"/>
     </row>
-    <row r="876" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -37183,7 +37183,7 @@
       <c r="AK876" s="7"/>
       <c r="AL876" s="7"/>
     </row>
-    <row r="877" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -37223,7 +37223,7 @@
       <c r="AK877" s="7"/>
       <c r="AL877" s="7"/>
     </row>
-    <row r="878" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -37263,7 +37263,7 @@
       <c r="AK878" s="7"/>
       <c r="AL878" s="7"/>
     </row>
-    <row r="879" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -37303,7 +37303,7 @@
       <c r="AK879" s="7"/>
       <c r="AL879" s="7"/>
     </row>
-    <row r="880" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -37343,7 +37343,7 @@
       <c r="AK880" s="7"/>
       <c r="AL880" s="7"/>
     </row>
-    <row r="881" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -37383,7 +37383,7 @@
       <c r="AK881" s="7"/>
       <c r="AL881" s="7"/>
     </row>
-    <row r="882" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -37423,7 +37423,7 @@
       <c r="AK882" s="7"/>
       <c r="AL882" s="7"/>
     </row>
-    <row r="883" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -37463,7 +37463,7 @@
       <c r="AK883" s="7"/>
       <c r="AL883" s="7"/>
     </row>
-    <row r="884" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -37503,7 +37503,7 @@
       <c r="AK884" s="7"/>
       <c r="AL884" s="7"/>
     </row>
-    <row r="885" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -37543,7 +37543,7 @@
       <c r="AK885" s="7"/>
       <c r="AL885" s="7"/>
     </row>
-    <row r="886" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -37583,7 +37583,7 @@
       <c r="AK886" s="7"/>
       <c r="AL886" s="7"/>
     </row>
-    <row r="887" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -37623,7 +37623,7 @@
       <c r="AK887" s="7"/>
       <c r="AL887" s="7"/>
     </row>
-    <row r="888" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -37663,7 +37663,7 @@
       <c r="AK888" s="7"/>
       <c r="AL888" s="7"/>
     </row>
-    <row r="889" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -37703,7 +37703,7 @@
       <c r="AK889" s="7"/>
       <c r="AL889" s="7"/>
     </row>
-    <row r="890" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -37743,7 +37743,7 @@
       <c r="AK890" s="7"/>
       <c r="AL890" s="7"/>
     </row>
-    <row r="891" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -37783,7 +37783,7 @@
       <c r="AK891" s="7"/>
       <c r="AL891" s="7"/>
     </row>
-    <row r="892" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -37823,7 +37823,7 @@
       <c r="AK892" s="7"/>
       <c r="AL892" s="7"/>
     </row>
-    <row r="893" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -37863,7 +37863,7 @@
       <c r="AK893" s="7"/>
       <c r="AL893" s="7"/>
     </row>
-    <row r="894" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -37903,7 +37903,7 @@
       <c r="AK894" s="7"/>
       <c r="AL894" s="7"/>
     </row>
-    <row r="895" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -37943,7 +37943,7 @@
       <c r="AK895" s="7"/>
       <c r="AL895" s="7"/>
     </row>
-    <row r="896" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -37983,7 +37983,7 @@
       <c r="AK896" s="7"/>
       <c r="AL896" s="7"/>
     </row>
-    <row r="897" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -38023,7 +38023,7 @@
       <c r="AK897" s="7"/>
       <c r="AL897" s="7"/>
     </row>
-    <row r="898" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -38063,7 +38063,7 @@
       <c r="AK898" s="7"/>
       <c r="AL898" s="7"/>
     </row>
-    <row r="899" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -38103,7 +38103,7 @@
       <c r="AK899" s="7"/>
       <c r="AL899" s="7"/>
     </row>
-    <row r="900" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -38143,7 +38143,7 @@
       <c r="AK900" s="7"/>
       <c r="AL900" s="7"/>
     </row>
-    <row r="901" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -38183,7 +38183,7 @@
       <c r="AK901" s="7"/>
       <c r="AL901" s="7"/>
     </row>
-    <row r="902" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -38223,7 +38223,7 @@
       <c r="AK902" s="7"/>
       <c r="AL902" s="7"/>
     </row>
-    <row r="903" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -38263,7 +38263,7 @@
       <c r="AK903" s="7"/>
       <c r="AL903" s="7"/>
     </row>
-    <row r="904" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -38303,7 +38303,7 @@
       <c r="AK904" s="7"/>
       <c r="AL904" s="7"/>
     </row>
-    <row r="905" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -38343,7 +38343,7 @@
       <c r="AK905" s="7"/>
       <c r="AL905" s="7"/>
     </row>
-    <row r="906" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -38383,7 +38383,7 @@
       <c r="AK906" s="7"/>
       <c r="AL906" s="7"/>
     </row>
-    <row r="907" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -38423,7 +38423,7 @@
       <c r="AK907" s="7"/>
       <c r="AL907" s="7"/>
     </row>
-    <row r="908" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -38463,7 +38463,7 @@
       <c r="AK908" s="7"/>
       <c r="AL908" s="7"/>
     </row>
-    <row r="909" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -38503,7 +38503,7 @@
       <c r="AK909" s="7"/>
       <c r="AL909" s="7"/>
     </row>
-    <row r="910" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -38543,7 +38543,7 @@
       <c r="AK910" s="7"/>
       <c r="AL910" s="7"/>
     </row>
-    <row r="911" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -38583,7 +38583,7 @@
       <c r="AK911" s="7"/>
       <c r="AL911" s="7"/>
     </row>
-    <row r="912" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -38623,7 +38623,7 @@
       <c r="AK912" s="7"/>
       <c r="AL912" s="7"/>
     </row>
-    <row r="913" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -38663,7 +38663,7 @@
       <c r="AK913" s="7"/>
       <c r="AL913" s="7"/>
     </row>
-    <row r="914" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -38703,7 +38703,7 @@
       <c r="AK914" s="7"/>
       <c r="AL914" s="7"/>
     </row>
-    <row r="915" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -38743,7 +38743,7 @@
       <c r="AK915" s="7"/>
       <c r="AL915" s="7"/>
     </row>
-    <row r="916" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -38783,7 +38783,7 @@
       <c r="AK916" s="7"/>
       <c r="AL916" s="7"/>
     </row>
-    <row r="917" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -38823,7 +38823,7 @@
       <c r="AK917" s="7"/>
       <c r="AL917" s="7"/>
     </row>
-    <row r="918" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -38863,7 +38863,7 @@
       <c r="AK918" s="7"/>
       <c r="AL918" s="7"/>
     </row>
-    <row r="919" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -38903,7 +38903,7 @@
       <c r="AK919" s="7"/>
       <c r="AL919" s="7"/>
     </row>
-    <row r="920" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -38943,7 +38943,7 @@
       <c r="AK920" s="7"/>
       <c r="AL920" s="7"/>
     </row>
-    <row r="921" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -38983,7 +38983,7 @@
       <c r="AK921" s="7"/>
       <c r="AL921" s="7"/>
     </row>
-    <row r="922" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -39023,7 +39023,7 @@
       <c r="AK922" s="7"/>
       <c r="AL922" s="7"/>
     </row>
-    <row r="923" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -39063,7 +39063,7 @@
       <c r="AK923" s="7"/>
       <c r="AL923" s="7"/>
     </row>
-    <row r="924" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -39103,7 +39103,7 @@
       <c r="AK924" s="7"/>
       <c r="AL924" s="7"/>
     </row>
-    <row r="925" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -39143,7 +39143,7 @@
       <c r="AK925" s="7"/>
       <c r="AL925" s="7"/>
     </row>
-    <row r="926" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -39183,7 +39183,7 @@
       <c r="AK926" s="7"/>
       <c r="AL926" s="7"/>
     </row>
-    <row r="927" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -39223,7 +39223,7 @@
       <c r="AK927" s="7"/>
       <c r="AL927" s="7"/>
     </row>
-    <row r="928" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -39263,7 +39263,7 @@
       <c r="AK928" s="7"/>
       <c r="AL928" s="7"/>
     </row>
-    <row r="929" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -39303,7 +39303,7 @@
       <c r="AK929" s="7"/>
       <c r="AL929" s="7"/>
     </row>
-    <row r="930" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -39343,7 +39343,7 @@
       <c r="AK930" s="7"/>
       <c r="AL930" s="7"/>
     </row>
-    <row r="931" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -39383,7 +39383,7 @@
       <c r="AK931" s="7"/>
       <c r="AL931" s="7"/>
     </row>
-    <row r="932" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -39423,7 +39423,7 @@
       <c r="AK932" s="7"/>
       <c r="AL932" s="7"/>
     </row>
-    <row r="933" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -39463,7 +39463,7 @@
       <c r="AK933" s="7"/>
       <c r="AL933" s="7"/>
     </row>
-    <row r="934" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -39503,7 +39503,7 @@
       <c r="AK934" s="7"/>
       <c r="AL934" s="7"/>
     </row>
-    <row r="935" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -39543,7 +39543,7 @@
       <c r="AK935" s="7"/>
       <c r="AL935" s="7"/>
     </row>
-    <row r="936" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -39583,7 +39583,7 @@
       <c r="AK936" s="7"/>
       <c r="AL936" s="7"/>
     </row>
-    <row r="937" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -39623,7 +39623,7 @@
       <c r="AK937" s="7"/>
       <c r="AL937" s="7"/>
     </row>
-    <row r="938" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -39663,7 +39663,7 @@
       <c r="AK938" s="7"/>
       <c r="AL938" s="7"/>
     </row>
-    <row r="939" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -39703,7 +39703,7 @@
       <c r="AK939" s="7"/>
       <c r="AL939" s="7"/>
     </row>
-    <row r="940" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -39743,7 +39743,7 @@
       <c r="AK940" s="7"/>
       <c r="AL940" s="7"/>
     </row>
-    <row r="941" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -39783,7 +39783,7 @@
       <c r="AK941" s="7"/>
       <c r="AL941" s="7"/>
     </row>
-    <row r="942" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -39823,7 +39823,7 @@
       <c r="AK942" s="7"/>
       <c r="AL942" s="7"/>
     </row>
-    <row r="943" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -39863,7 +39863,7 @@
       <c r="AK943" s="7"/>
       <c r="AL943" s="7"/>
     </row>
-    <row r="944" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -39932,15 +39932,15 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7:AE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -40035,7 +40035,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -40159,132 +40159,102 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="27">
-        <f>0.95-IRA!D57</f>
         <v>0.95</v>
       </c>
       <c r="C3" s="27">
-        <f>0.95-IRA!E57</f>
         <v>0.95</v>
       </c>
       <c r="D3" s="27">
-        <f>0.95-IRA!F57</f>
         <v>0.95</v>
       </c>
       <c r="E3" s="27">
-        <f>0.95-IRA!G57</f>
-        <v>0.86393854356671806</v>
+        <v>0.95</v>
       </c>
       <c r="F3" s="27">
-        <f>0.95-IRA!H57</f>
-        <v>0.77787708713343617</v>
+        <v>0.95</v>
       </c>
       <c r="G3" s="27">
-        <f>0.95-IRA!I57</f>
-        <v>0.69181563070015428</v>
+        <v>0.95</v>
       </c>
       <c r="H3" s="27">
-        <f>0.95-IRA!J57</f>
-        <v>0.60575417426687239</v>
+        <v>0.95</v>
       </c>
       <c r="I3" s="27">
-        <f>0.95-IRA!K57</f>
-        <v>0.51186894906692837</v>
+        <v>0.95</v>
       </c>
       <c r="J3" s="27">
-        <f>0.95-IRA!L57</f>
-        <v>0.4258074926336467</v>
+        <v>0.95</v>
       </c>
       <c r="K3" s="27">
-        <f>0.95-IRA!M57</f>
-        <v>0.33974603620036481</v>
+        <v>0.95</v>
       </c>
       <c r="L3" s="27">
-        <f>0.95-IRA!N57</f>
-        <v>0.25368457976708292</v>
+        <v>0.95</v>
       </c>
       <c r="M3" s="27">
-        <f>0.95-IRA!O57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="N3" s="27">
-        <f>0.95-IRA!P57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="O3" s="27">
-        <f>0.95-IRA!Q57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="P3" s="27">
-        <f>0.95-IRA!R57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="Q3" s="27">
-        <f>0.95-IRA!S57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="R3" s="27">
-        <f>0.95-IRA!T57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="S3" s="27">
-        <f>0.95-IRA!U57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="T3" s="27">
-        <f>0.95-IRA!V57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="U3" s="27">
-        <f>0.95-IRA!W57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="V3" s="27">
-        <f>0.95-IRA!X57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="W3" s="27">
-        <f>0.95-IRA!Y57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="X3" s="27">
-        <f>0.95-IRA!Z57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="Y3" s="27">
-        <f>0.95-IRA!AA57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="Z3" s="27">
-        <f>0.95-IRA!AB57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="AA3" s="27">
-        <f>0.95-IRA!AC57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="AB3" s="27">
-        <f>0.95-IRA!AD57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="AC3" s="27">
-        <f>0.95-IRA!AE57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="27">
-        <f>0.95-IRA!AF57</f>
-        <v>0.16762312333380103</v>
+        <v>0.95</v>
       </c>
       <c r="AE3" s="27">
-        <f>0.95-IRA!AG57</f>
-        <v>0.16762312333380103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -40379,7 +40349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -40474,7 +40444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -40569,132 +40539,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="27">
-        <f>IRA!D57</f>
         <v>0</v>
       </c>
       <c r="C7" s="27">
-        <f>IRA!E57</f>
         <v>0</v>
       </c>
       <c r="D7" s="27">
-        <f>IRA!F57</f>
         <v>0</v>
       </c>
       <c r="E7" s="27">
-        <f>IRA!G57</f>
-        <v>8.6061456433281891E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="27">
-        <f>IRA!H57</f>
-        <v>0.17212291286656378</v>
+        <v>0</v>
       </c>
       <c r="G7" s="27">
-        <f>IRA!I57</f>
-        <v>0.25818436929984567</v>
+        <v>0</v>
       </c>
       <c r="H7" s="27">
-        <f>IRA!J57</f>
-        <v>0.34424582573312756</v>
+        <v>0</v>
       </c>
       <c r="I7" s="27">
-        <f>IRA!K57</f>
-        <v>0.43813105093307153</v>
+        <v>0</v>
       </c>
       <c r="J7" s="27">
-        <f>IRA!L57</f>
-        <v>0.52419250736635326</v>
+        <v>0</v>
       </c>
       <c r="K7" s="27">
-        <f>IRA!M57</f>
-        <v>0.61025396379963515</v>
+        <v>0</v>
       </c>
       <c r="L7" s="27">
-        <f>IRA!N57</f>
-        <v>0.69631542023291704</v>
+        <v>0</v>
       </c>
       <c r="M7" s="27">
-        <f>IRA!O57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="N7" s="27">
-        <f>IRA!P57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="O7" s="27">
-        <f>IRA!Q57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="P7" s="27">
-        <f>IRA!R57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="27">
-        <f>IRA!S57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="R7" s="27">
-        <f>IRA!T57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="S7" s="27">
-        <f>IRA!U57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="T7" s="27">
-        <f>IRA!V57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="U7" s="27">
-        <f>IRA!W57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="V7" s="27">
-        <f>IRA!X57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="W7" s="27">
-        <f>IRA!Y57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="X7" s="27">
-        <f>IRA!Z57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="27">
-        <f>IRA!AA57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="27">
-        <f>IRA!AB57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="27">
-        <f>IRA!AC57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="27">
-        <f>IRA!AD57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="27">
-        <f>IRA!AE57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="27">
-        <f>IRA!AF57</f>
-        <v>0.78237687666619893</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="27">
-        <f>IRA!AG57</f>
-        <v>0.78237687666619893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>

--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\hydgn\BHPSbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEB5C7C-B67A-4EE7-B2AD-11F306C1C6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A22C27-1EAB-4BBB-9A2C-36C6F88E0914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -854,7 +854,7 @@
   </sheetPr>
   <dimension ref="A1:AL944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+    <sheetView topLeftCell="B38" workbookViewId="0">
       <selection activeCell="H45" sqref="H45:O45"/>
     </sheetView>
   </sheetViews>
@@ -39940,8 +39940,8 @@
   </sheetPr>
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40052,11 +40052,11 @@
         <v>0.05</v>
       </c>
       <c r="C2" s="26">
-        <f t="shared" ref="C2:AE2" si="0">$B2</f>
+        <f>B2</f>
         <v>0.05</v>
       </c>
       <c r="D2" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:AE8" si="0">C2</f>
         <v>0.05</v>
       </c>
       <c r="E2" s="26">
@@ -40177,120 +40177,120 @@
         <v>0.95</v>
       </c>
       <c r="C3" s="26">
-        <f>0.95-IRA!E57</f>
+        <f t="shared" ref="C3:R8" si="1">B3</f>
         <v>0.95</v>
       </c>
       <c r="D3" s="26">
-        <f>0.95-IRA!F57</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="E3" s="26">
-        <f>0.95-IRA!G57</f>
+        <f t="shared" si="1"/>
         <v>0.95</v>
       </c>
       <c r="F3" s="26">
-        <f>0.95-IRA!H57</f>
-        <v>0.85220289041672515</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="G3" s="26">
-        <f>0.95-IRA!I57</f>
-        <v>0.75440578083345022</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="H3" s="26">
-        <f>0.95-IRA!J57</f>
-        <v>0.6566086712501753</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="I3" s="26">
-        <f>0.95-IRA!K57</f>
-        <v>0.55881156166690049</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="J3" s="26">
-        <f>0.95-IRA!L57</f>
-        <v>0.46101445208362563</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="K3" s="26">
-        <f>0.95-IRA!M57</f>
-        <v>0.36321734250035076</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="L3" s="26">
-        <f>0.95-IRA!N57</f>
-        <v>0.26542023291707584</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="M3" s="26">
-        <f>0.95-IRA!O57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="N3" s="26">
-        <f>0.95-IRA!P57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="O3" s="26">
-        <f>0.95-IRA!Q57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="P3" s="26">
-        <f>0.95-IRA!R57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="Q3" s="26">
-        <f>0.95-IRA!S57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="R3" s="26">
-        <f>0.95-IRA!T57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="1"/>
+        <v>0.95</v>
       </c>
       <c r="S3" s="26">
-        <f>0.95-IRA!U57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="T3" s="26">
-        <f>0.95-IRA!V57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="U3" s="26">
-        <f>0.95-IRA!W57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="V3" s="26">
-        <f>0.95-IRA!X57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="W3" s="26">
-        <f>0.95-IRA!Y57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="X3" s="26">
-        <f>0.95-IRA!Z57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="Y3" s="26">
-        <f>0.95-IRA!AA57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="Z3" s="26">
-        <f>0.95-IRA!AB57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AA3" s="26">
-        <f>0.95-IRA!AC57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AB3" s="26">
-        <f>0.95-IRA!AD57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AC3" s="26">
-        <f>0.95-IRA!AE57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="26">
-        <f>0.95-IRA!AF57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="AE3" s="26">
-        <f>0.95-IRA!AG57</f>
-        <v>0.16762312333380103</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -40301,90 +40301,119 @@
         <v>0</v>
       </c>
       <c r="C4" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE4" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -40396,90 +40425,119 @@
         <v>0</v>
       </c>
       <c r="C5" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE5" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -40491,90 +40549,119 @@
         <v>0</v>
       </c>
       <c r="C6" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE6" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -40587,120 +40674,120 @@
         <v>0</v>
       </c>
       <c r="C7" s="26">
-        <f>IRA!E57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="26">
-        <f>IRA!F57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="26">
-        <f>IRA!G57</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="26">
-        <f>IRA!H57</f>
-        <v>9.7797109583274866E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="26">
-        <f>IRA!I57</f>
-        <v>0.19559421916654973</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H7" s="26">
-        <f>IRA!J57</f>
-        <v>0.2933913287498246</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I7" s="26">
-        <f>IRA!K57</f>
-        <v>0.39118843833309946</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7" s="26">
-        <f>IRA!L57</f>
-        <v>0.48898554791637433</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K7" s="26">
-        <f>IRA!M57</f>
-        <v>0.5867826574996492</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L7" s="26">
-        <f>IRA!N57</f>
-        <v>0.68457976708292412</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="M7" s="26">
-        <f>IRA!O57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N7" s="26">
-        <f>IRA!P57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O7" s="26">
-        <f>IRA!Q57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P7" s="26">
-        <f>IRA!R57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Q7" s="26">
-        <f>IRA!S57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R7" s="26">
-        <f>IRA!T57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="S7" s="26">
-        <f>IRA!U57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="T7" s="26">
-        <f>IRA!V57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="U7" s="26">
-        <f>IRA!W57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="V7" s="26">
-        <f>IRA!X57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="W7" s="26">
-        <f>IRA!Y57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="X7" s="26">
-        <f>IRA!Z57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y7" s="26">
-        <f>IRA!AA57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Z7" s="26">
-        <f>IRA!AB57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AA7" s="26">
-        <f>IRA!AC57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB7" s="26">
-        <f>IRA!AD57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AC7" s="26">
-        <f>IRA!AE57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AD7" s="26">
-        <f>IRA!AF57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AE7" s="26">
-        <f>IRA!AG57</f>
-        <v>0.78237687666619893</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -40711,90 +40798,119 @@
         <v>0</v>
       </c>
       <c r="C8" s="26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE8" s="26">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
